--- a/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - PRO_APURACAO_EXTENSAO - ATUALIZADO.xlsx
+++ b/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - PRO_APURACAO_EXTENSAO - ATUALIZADO.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="2340" windowWidth="14700" windowHeight="5535" tabRatio="862"/>
+    <workbookView xWindow="2445" yWindow="2340" windowWidth="14700" windowHeight="5535" tabRatio="862" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
     <sheet name="Origens Destinos e Definições" sheetId="10" r:id="rId2"/>
-    <sheet name="Desenho do Mapa" sheetId="16" r:id="rId3"/>
-    <sheet name="Mapeamento P1" sheetId="8" r:id="rId4"/>
+    <sheet name="Desenho - ODS_REMUNER_DOCENTE" sheetId="16" r:id="rId3"/>
+    <sheet name="Mapeam. - ODS_REMUNER_DOCENTE" sheetId="8" r:id="rId4"/>
     <sheet name="Desenho do Mapa P2" sheetId="17" r:id="rId5"/>
     <sheet name="Mapeamento P2 - Fluxo 1" sheetId="19" r:id="rId6"/>
     <sheet name="Mapeamento P2 - Fluxo 2" sheetId="18" r:id="rId7"/>
     <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1223,8 +1223,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1768,7 +1768,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2079,6 +2079,75 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2088,111 +2157,143 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2202,14 +2303,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2220,69 +2321,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2298,6 +2336,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2307,55 +2357,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2379,7 +2382,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2409,7 +2412,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2476,7 +2479,7 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2524,7 +2527,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2547,14 +2550,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2597,7 +2600,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2620,14 +2623,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2641,6 +2644,98 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>381000</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>31</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
+          <xdr:row>56</xdr:row>
+          <xdr:rowOff>95250</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15361" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s15361"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>22</xdr:col>
+          <xdr:colOff>314325</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20481" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s20481"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2730,6 +2825,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2764,6 +2860,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2939,15 +3036,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="13" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="13" customWidth="1"/>
@@ -2956,13 +3053,13 @@
     <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" customHeight="1">
-      <c r="C2" s="190" t="s">
+    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="D2" s="190"/>
-    </row>
-    <row r="3" spans="2:10" ht="15">
+      <c r="D2" s="113"/>
+    </row>
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="14" t="s">
         <v>145</v>
       </c>
@@ -2970,22 +3067,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C5" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -2996,145 +3093,137 @@
       <c r="I7" s="40"/>
       <c r="J7" s="40"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="9" spans="2:10">
-      <c r="B9" s="119" t="s">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="121"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="122"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1">
+      <c r="C9" s="121"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="122"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="123"/>
+      <c r="C10" s="124"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="125"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="41" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="125"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125" t="s">
+      <c r="E11" s="126"/>
+      <c r="F11" s="126"/>
+      <c r="G11" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
-      <c r="J11" s="126"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="127"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="26">
         <v>41235</v>
       </c>
-      <c r="D12" s="127" t="s">
+      <c r="D12" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="130" t="s">
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="131"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="132"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="25"/>
       <c r="C13" s="24"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="D13" s="114"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="119"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="23"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="115"/>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="119"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="23"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="115"/>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="119"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="23"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="115"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="119"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="23"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="110"/>
-      <c r="F17" s="110"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="112"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="134"/>
+      <c r="J17" s="135"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="23"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="112"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="134"/>
+      <c r="J18" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3145,6 +3234,14 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3154,15 +3251,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="13" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="13" customWidth="1"/>
@@ -3171,7 +3270,7 @@
     <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18">
+    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="14" t="s">
         <v>163</v>
       </c>
@@ -3180,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15">
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="14" t="s">
         <v>145</v>
       </c>
@@ -3189,7 +3288,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1">
+    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -3200,142 +3299,142 @@
       <c r="I4" s="40"/>
       <c r="J4" s="40"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
-    <row r="6" spans="2:10">
-      <c r="B6" s="136" t="s">
+    <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="139"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="48" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="136" t="s">
+      <c r="D7" s="139" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="E7" s="139"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="139"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="85" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="136"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="85" t="s">
         <v>129</v>
       </c>
       <c r="C9" s="49"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="138"/>
-      <c r="J9" s="138"/>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="D9" s="136"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="136"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="85" t="s">
         <v>128</v>
       </c>
       <c r="C10" s="49"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="D10" s="136"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="136"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="85" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="49"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="136"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="49"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="136"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="85" t="s">
         <v>108</v>
       </c>
       <c r="C13" s="49"/>
-      <c r="D13" s="138"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="D13" s="136"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="136"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="85" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="49"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="136"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="85" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="49"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="138"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="138"/>
-      <c r="J15" s="138"/>
-    </row>
-    <row r="16" spans="2:10" ht="13.5" thickBot="1">
+      <c r="D15" s="136"/>
+      <c r="E15" s="136"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="136"/>
+    </row>
+    <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3346,20 +3445,20 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="139" t="s">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="140"/>
-    </row>
-    <row r="18" spans="2:10" ht="23.25" customHeight="1">
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="138"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+    </row>
+    <row r="18" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="44" t="s">
         <v>61</v>
       </c>
@@ -3369,31 +3468,31 @@
       <c r="D18" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="133" t="s">
+      <c r="E18" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="134"/>
-      <c r="G18" s="133" t="s">
+      <c r="F18" s="144"/>
+      <c r="G18" s="142" t="s">
         <v>57</v>
       </c>
       <c r="H18" s="143"/>
       <c r="I18" s="143"/>
-      <c r="J18" s="134"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="J18" s="144"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>164</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="132"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="132"/>
-    </row>
-    <row r="20" spans="2:10" ht="13.5" thickBot="1">
+      <c r="E19" s="140"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
+    </row>
+    <row r="20" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3404,14 +3503,14 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B21" s="139" t="s">
+    <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="137" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="C21" s="138"/>
+      <c r="D21" s="138"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="43" t="s">
         <v>62</v>
       </c>
@@ -3422,14 +3521,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="204" t="s">
         <v>164</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3440,20 +3539,20 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B25" s="136" t="s">
+    <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="136"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="136"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="139"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="48" t="s">
         <v>67</v>
       </c>
@@ -3463,52 +3562,61 @@
       <c r="D26" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="137" t="s">
+      <c r="E26" s="147" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="137"/>
-      <c r="G26" s="137" t="s">
+      <c r="F26" s="147"/>
+      <c r="G26" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="137"/>
-      <c r="I26" s="137"/>
-      <c r="J26" s="137"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="147"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="10"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="135"/>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="135"/>
-    </row>
-    <row r="29" spans="2:10">
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="135"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D14:J14"/>
@@ -3525,15 +3633,6 @@
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3544,40 +3643,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <oleObject progId="Visio.Drawing.11" shapeId="15361" r:id="rId3"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="15361" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>381000</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>31</xdr:col>
+                <xdr:colOff>323850</xdr:colOff>
+                <xdr:row>56</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="15361" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AF66"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3613,7 +3737,7 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
       <c r="Q1" s="52"/>
       <c r="R1" s="52"/>
       <c r="S1" s="52"/>
@@ -3621,45 +3745,45 @@
       <c r="U1" s="52"/>
       <c r="V1" s="52"/>
     </row>
-    <row r="2" spans="2:29">
-      <c r="B2" s="159" t="s">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B2" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="157" t="s">
+      <c r="O2" s="164"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="161"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="161"/>
+      <c r="AB2" s="161"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25">
+    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3743,7 +3867,7 @@
       </c>
       <c r="AC3" s="38"/>
     </row>
-    <row r="4" spans="2:29">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
       <c r="D4" s="68"/>
@@ -3774,13 +3898,13 @@
       <c r="U4" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V4" s="193" t="s">
+      <c r="V4" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="W4" s="193" t="s">
+      <c r="W4" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="X4" s="194" t="s">
+      <c r="X4" s="111" t="s">
         <v>118</v>
       </c>
       <c r="Y4" s="74">
@@ -3791,7 +3915,7 @@
       <c r="AB4" s="59"/>
       <c r="AC4" s="59"/>
     </row>
-    <row r="5" spans="2:29">
+    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
       <c r="D5" s="68"/>
@@ -3822,13 +3946,13 @@
       <c r="U5" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V5" s="193" t="s">
+      <c r="V5" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="W5" s="193" t="s">
+      <c r="W5" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="X5" s="194" t="s">
+      <c r="X5" s="111" t="s">
         <v>118</v>
       </c>
       <c r="Y5" s="74">
@@ -3839,7 +3963,7 @@
       <c r="AB5" s="59"/>
       <c r="AC5" s="59"/>
     </row>
-    <row r="6" spans="2:29">
+    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B6" s="61" t="s">
         <v>107</v>
       </c>
@@ -3894,7 +4018,7 @@
       <c r="W6" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="X6" s="194" t="s">
+      <c r="X6" s="111" t="s">
         <v>118</v>
       </c>
       <c r="Y6" s="74">
@@ -3905,7 +4029,7 @@
       <c r="AB6" s="59"/>
       <c r="AC6" s="59"/>
     </row>
-    <row r="7" spans="2:29">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
       <c r="D7" s="68"/>
@@ -3936,13 +4060,13 @@
       <c r="U7" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V7" s="193" t="s">
+      <c r="V7" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="W7" s="193" t="s">
+      <c r="W7" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="X7" s="194" t="s">
+      <c r="X7" s="111" t="s">
         <v>118</v>
       </c>
       <c r="Y7" s="74">
@@ -3953,7 +4077,7 @@
       <c r="AB7" s="59"/>
       <c r="AC7" s="59"/>
     </row>
-    <row r="8" spans="2:29">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B8" s="61" t="s">
         <v>107</v>
       </c>
@@ -4002,13 +4126,13 @@
       <c r="U8" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V8" s="193" t="s">
+      <c r="V8" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="W8" s="193" t="s">
+      <c r="W8" s="110" t="s">
         <v>92</v>
       </c>
-      <c r="X8" s="194" t="s">
+      <c r="X8" s="111" t="s">
         <v>118</v>
       </c>
       <c r="Y8" s="74">
@@ -4019,7 +4143,7 @@
       <c r="AB8" s="59"/>
       <c r="AC8" s="59"/>
     </row>
-    <row r="9" spans="2:29">
+    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B9" s="61" t="s">
         <v>107</v>
       </c>
@@ -4050,42 +4174,42 @@
       </c>
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
-      <c r="N9" s="163" t="s">
+      <c r="N9" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="163"/>
-      <c r="P9" s="163"/>
-      <c r="Q9" s="163" t="s">
-        <v>104</v>
-      </c>
-      <c r="R9" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="S9" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="T9" s="167"/>
-      <c r="U9" s="151" t="s">
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="166" t="s">
+        <v>164</v>
+      </c>
+      <c r="S9" s="166" t="s">
+        <v>164</v>
+      </c>
+      <c r="T9" s="171"/>
+      <c r="U9" s="172" t="s">
         <v>119</v>
       </c>
-      <c r="V9" s="195" t="s">
+      <c r="V9" s="169" t="s">
         <v>98</v>
       </c>
-      <c r="W9" s="195" t="s">
+      <c r="W9" s="169" t="s">
         <v>98</v>
       </c>
-      <c r="X9" s="196" t="s">
+      <c r="X9" s="170" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" s="168">
+      <c r="Y9" s="175">
         <v>11</v>
       </c>
-      <c r="Z9" s="171"/>
-      <c r="AA9" s="166"/>
-      <c r="AB9" s="163"/>
-      <c r="AC9" s="163"/>
-    </row>
-    <row r="10" spans="2:29">
+      <c r="Z9" s="178"/>
+      <c r="AA9" s="179"/>
+      <c r="AB9" s="148"/>
+      <c r="AC9" s="148"/>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B10" s="61" t="s">
         <v>107</v>
       </c>
@@ -4116,24 +4240,24 @@
       </c>
       <c r="L10" s="59"/>
       <c r="M10" s="59"/>
-      <c r="N10" s="164"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="146"/>
-      <c r="S10" s="146"/>
-      <c r="T10" s="167"/>
-      <c r="U10" s="152"/>
-      <c r="V10" s="195"/>
-      <c r="W10" s="195"/>
-      <c r="X10" s="196"/>
-      <c r="Y10" s="169"/>
-      <c r="Z10" s="171"/>
-      <c r="AA10" s="166"/>
-      <c r="AB10" s="164"/>
-      <c r="AC10" s="164"/>
-    </row>
-    <row r="11" spans="2:29">
+      <c r="N10" s="149"/>
+      <c r="O10" s="149"/>
+      <c r="P10" s="149"/>
+      <c r="Q10" s="149"/>
+      <c r="R10" s="167"/>
+      <c r="S10" s="167"/>
+      <c r="T10" s="171"/>
+      <c r="U10" s="173"/>
+      <c r="V10" s="169"/>
+      <c r="W10" s="169"/>
+      <c r="X10" s="170"/>
+      <c r="Y10" s="176"/>
+      <c r="Z10" s="178"/>
+      <c r="AA10" s="179"/>
+      <c r="AB10" s="149"/>
+      <c r="AC10" s="149"/>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B11" s="61" t="s">
         <v>107</v>
       </c>
@@ -4164,24 +4288,24 @@
       </c>
       <c r="L11" s="59"/>
       <c r="M11" s="59"/>
-      <c r="N11" s="165"/>
-      <c r="O11" s="165"/>
-      <c r="P11" s="165"/>
-      <c r="Q11" s="165"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="167"/>
-      <c r="U11" s="153"/>
-      <c r="V11" s="195"/>
-      <c r="W11" s="195"/>
-      <c r="X11" s="196"/>
-      <c r="Y11" s="170"/>
-      <c r="Z11" s="171"/>
-      <c r="AA11" s="166"/>
-      <c r="AB11" s="165"/>
-      <c r="AC11" s="165"/>
-    </row>
-    <row r="12" spans="2:29">
+      <c r="N11" s="150"/>
+      <c r="O11" s="150"/>
+      <c r="P11" s="150"/>
+      <c r="Q11" s="150"/>
+      <c r="R11" s="168"/>
+      <c r="S11" s="168"/>
+      <c r="T11" s="171"/>
+      <c r="U11" s="174"/>
+      <c r="V11" s="169"/>
+      <c r="W11" s="169"/>
+      <c r="X11" s="170"/>
+      <c r="Y11" s="177"/>
+      <c r="Z11" s="178"/>
+      <c r="AA11" s="179"/>
+      <c r="AB11" s="150"/>
+      <c r="AC11" s="150"/>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B12" s="61" t="s">
         <v>107</v>
       </c>
@@ -4230,13 +4354,13 @@
       <c r="U12" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V12" s="193" t="s">
+      <c r="V12" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="W12" s="193" t="s">
+      <c r="W12" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="X12" s="197" t="s">
+      <c r="X12" s="112" t="s">
         <v>115</v>
       </c>
       <c r="Y12" s="74">
@@ -4247,7 +4371,7 @@
       <c r="AB12" s="59"/>
       <c r="AC12" s="59"/>
     </row>
-    <row r="13" spans="2:29">
+    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B13" s="61" t="s">
         <v>107</v>
       </c>
@@ -4296,13 +4420,13 @@
       <c r="U13" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V13" s="193" t="s">
+      <c r="V13" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="W13" s="193" t="s">
+      <c r="W13" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="X13" s="194" t="s">
+      <c r="X13" s="111" t="s">
         <v>115</v>
       </c>
       <c r="Y13" s="74">
@@ -4313,7 +4437,7 @@
       <c r="AB13" s="59"/>
       <c r="AC13" s="59"/>
     </row>
-    <row r="14" spans="2:29">
+    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B14" s="61" t="s">
         <v>107</v>
       </c>
@@ -4362,13 +4486,13 @@
       <c r="U14" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V14" s="193" t="s">
+      <c r="V14" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="W14" s="193" t="s">
+      <c r="W14" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="X14" s="197" t="s">
+      <c r="X14" s="112" t="s">
         <v>115</v>
       </c>
       <c r="Y14" s="74">
@@ -4379,7 +4503,7 @@
       <c r="AB14" s="59"/>
       <c r="AC14" s="59"/>
     </row>
-    <row r="15" spans="2:29">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
       <c r="D15" s="68"/>
@@ -4410,13 +4534,13 @@
       <c r="U15" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V15" s="193" t="s">
+      <c r="V15" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="W15" s="193" t="s">
+      <c r="W15" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="X15" s="194" t="s">
+      <c r="X15" s="111" t="s">
         <v>115</v>
       </c>
       <c r="Y15" s="74">
@@ -4429,7 +4553,7 @@
       <c r="AB15" s="59"/>
       <c r="AC15" s="59"/>
     </row>
-    <row r="16" spans="2:29">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B16" s="61" t="s">
         <v>107</v>
       </c>
@@ -4480,13 +4604,13 @@
       <c r="U16" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V16" s="193" t="s">
+      <c r="V16" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="W16" s="193" t="s">
+      <c r="W16" s="110" t="s">
         <v>94</v>
       </c>
-      <c r="X16" s="194" t="s">
+      <c r="X16" s="111" t="s">
         <v>115</v>
       </c>
       <c r="Y16" s="74">
@@ -4499,7 +4623,7 @@
       <c r="AB16" s="59"/>
       <c r="AC16" s="59"/>
     </row>
-    <row r="17" spans="2:29">
+    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
       <c r="D17" s="68"/>
@@ -4530,13 +4654,13 @@
       <c r="U17" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V17" s="193" t="s">
+      <c r="V17" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="W17" s="193" t="s">
+      <c r="W17" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="X17" s="194" t="s">
+      <c r="X17" s="111" t="s">
         <v>117</v>
       </c>
       <c r="Y17" s="74"/>
@@ -4545,7 +4669,7 @@
       <c r="AB17" s="59"/>
       <c r="AC17" s="59"/>
     </row>
-    <row r="18" spans="2:29">
+    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B18" s="61" t="s">
         <v>107</v>
       </c>
@@ -4594,13 +4718,13 @@
       <c r="U18" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V18" s="193" t="s">
+      <c r="V18" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="W18" s="193" t="s">
+      <c r="W18" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="X18" s="194" t="s">
+      <c r="X18" s="111" t="s">
         <v>118</v>
       </c>
       <c r="Y18" s="74">
@@ -4611,7 +4735,7 @@
       <c r="AB18" s="59"/>
       <c r="AC18" s="59"/>
     </row>
-    <row r="19" spans="2:29">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B19" s="61" t="s">
         <v>107</v>
       </c>
@@ -4660,13 +4784,13 @@
       <c r="U19" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V19" s="193" t="s">
+      <c r="V19" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="W19" s="193" t="s">
+      <c r="W19" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="X19" s="194" t="s">
+      <c r="X19" s="111" t="s">
         <v>118</v>
       </c>
       <c r="Y19" s="74">
@@ -4677,7 +4801,7 @@
       <c r="AB19" s="59"/>
       <c r="AC19" s="59"/>
     </row>
-    <row r="20" spans="2:29">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B20" s="61" t="s">
         <v>107</v>
       </c>
@@ -4726,13 +4850,13 @@
       <c r="U20" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V20" s="193" t="s">
+      <c r="V20" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="W20" s="193" t="s">
+      <c r="W20" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="X20" s="194" t="s">
+      <c r="X20" s="111" t="s">
         <v>118</v>
       </c>
       <c r="Y20" s="74">
@@ -4743,7 +4867,7 @@
       <c r="AB20" s="59"/>
       <c r="AC20" s="59"/>
     </row>
-    <row r="21" spans="2:29">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B21" s="61" t="s">
         <v>107</v>
       </c>
@@ -4792,13 +4916,13 @@
       <c r="U21" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V21" s="193" t="s">
+      <c r="V21" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="W21" s="193" t="s">
+      <c r="W21" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="X21" s="194" t="s">
+      <c r="X21" s="111" t="s">
         <v>118</v>
       </c>
       <c r="Y21" s="74">
@@ -4809,7 +4933,7 @@
       <c r="AB21" s="59"/>
       <c r="AC21" s="59"/>
     </row>
-    <row r="22" spans="2:29" ht="24">
+    <row r="22" spans="2:29" ht="24" x14ac:dyDescent="0.2">
       <c r="B22" s="61" t="s">
         <v>107</v>
       </c>
@@ -4858,13 +4982,13 @@
       <c r="U22" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V22" s="193" t="s">
+      <c r="V22" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="W22" s="193" t="s">
+      <c r="W22" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="X22" s="194" t="s">
+      <c r="X22" s="111" t="s">
         <v>118</v>
       </c>
       <c r="Y22" s="74">
@@ -4875,7 +4999,7 @@
       <c r="AB22" s="59"/>
       <c r="AC22" s="59"/>
     </row>
-    <row r="23" spans="2:29" ht="24">
+    <row r="23" spans="2:29" ht="24" x14ac:dyDescent="0.2">
       <c r="B23" s="61" t="s">
         <v>107</v>
       </c>
@@ -4924,13 +5048,13 @@
       <c r="U23" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V23" s="193" t="s">
+      <c r="V23" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="W23" s="193" t="s">
+      <c r="W23" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="X23" s="194" t="s">
+      <c r="X23" s="111" t="s">
         <v>118</v>
       </c>
       <c r="Y23" s="74">
@@ -4941,7 +5065,7 @@
       <c r="AB23" s="59"/>
       <c r="AC23" s="59"/>
     </row>
-    <row r="24" spans="2:29">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B24" s="61" t="s">
         <v>107</v>
       </c>
@@ -4990,13 +5114,13 @@
       <c r="U24" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V24" s="193" t="s">
+      <c r="V24" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="W24" s="193" t="s">
+      <c r="W24" s="110" t="s">
         <v>88</v>
       </c>
-      <c r="X24" s="194" t="s">
+      <c r="X24" s="111" t="s">
         <v>115</v>
       </c>
       <c r="Y24" s="74">
@@ -5007,7 +5131,7 @@
       <c r="AB24" s="59"/>
       <c r="AC24" s="59"/>
     </row>
-    <row r="25" spans="2:29">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B25" s="61" t="s">
         <v>107</v>
       </c>
@@ -5032,42 +5156,42 @@
       <c r="K25" s="78"/>
       <c r="L25" s="78"/>
       <c r="M25" s="78"/>
-      <c r="N25" s="144" t="s">
+      <c r="N25" s="180" t="s">
         <v>123</v>
       </c>
-      <c r="O25" s="154"/>
-      <c r="P25" s="154"/>
-      <c r="Q25" s="148" t="s">
-        <v>104</v>
-      </c>
-      <c r="R25" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="S25" s="145" t="s">
-        <v>164</v>
-      </c>
-      <c r="T25" s="145"/>
-      <c r="U25" s="151" t="s">
+      <c r="O25" s="189"/>
+      <c r="P25" s="189"/>
+      <c r="Q25" s="183" t="s">
+        <v>104</v>
+      </c>
+      <c r="R25" s="166" t="s">
+        <v>164</v>
+      </c>
+      <c r="S25" s="166" t="s">
+        <v>164</v>
+      </c>
+      <c r="T25" s="166"/>
+      <c r="U25" s="172" t="s">
         <v>119</v>
       </c>
-      <c r="V25" s="198" t="s">
+      <c r="V25" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="W25" s="198" t="s">
+      <c r="W25" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="X25" s="199" t="s">
+      <c r="X25" s="186" t="s">
         <v>118</v>
       </c>
-      <c r="Y25" s="175">
+      <c r="Y25" s="157">
         <v>15</v>
       </c>
-      <c r="Z25" s="175"/>
-      <c r="AA25" s="172"/>
-      <c r="AB25" s="172"/>
-      <c r="AC25" s="172"/>
-    </row>
-    <row r="26" spans="2:29">
+      <c r="Z25" s="157"/>
+      <c r="AA25" s="154"/>
+      <c r="AB25" s="154"/>
+      <c r="AC25" s="154"/>
+    </row>
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B26" s="61" t="s">
         <v>107</v>
       </c>
@@ -5098,24 +5222,24 @@
       </c>
       <c r="L26" s="78"/>
       <c r="M26" s="78"/>
-      <c r="N26" s="191"/>
-      <c r="O26" s="155"/>
-      <c r="P26" s="155"/>
-      <c r="Q26" s="149"/>
-      <c r="R26" s="146"/>
-      <c r="S26" s="146"/>
-      <c r="T26" s="146"/>
-      <c r="U26" s="152"/>
-      <c r="V26" s="200"/>
-      <c r="W26" s="200"/>
-      <c r="X26" s="201"/>
-      <c r="Y26" s="176"/>
-      <c r="Z26" s="176"/>
-      <c r="AA26" s="173"/>
-      <c r="AB26" s="173"/>
-      <c r="AC26" s="173"/>
-    </row>
-    <row r="27" spans="2:29">
+      <c r="N26" s="181"/>
+      <c r="O26" s="190"/>
+      <c r="P26" s="190"/>
+      <c r="Q26" s="184"/>
+      <c r="R26" s="167"/>
+      <c r="S26" s="167"/>
+      <c r="T26" s="167"/>
+      <c r="U26" s="173"/>
+      <c r="V26" s="152"/>
+      <c r="W26" s="152"/>
+      <c r="X26" s="187"/>
+      <c r="Y26" s="158"/>
+      <c r="Z26" s="158"/>
+      <c r="AA26" s="155"/>
+      <c r="AB26" s="155"/>
+      <c r="AC26" s="155"/>
+    </row>
+    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
       <c r="D27" s="68"/>
@@ -5132,24 +5256,24 @@
       <c r="K27" s="78"/>
       <c r="L27" s="78"/>
       <c r="M27" s="78"/>
-      <c r="N27" s="191"/>
-      <c r="O27" s="155"/>
-      <c r="P27" s="155"/>
-      <c r="Q27" s="149"/>
-      <c r="R27" s="146"/>
-      <c r="S27" s="146"/>
-      <c r="T27" s="146"/>
-      <c r="U27" s="152"/>
-      <c r="V27" s="200"/>
-      <c r="W27" s="200"/>
-      <c r="X27" s="201"/>
-      <c r="Y27" s="176"/>
-      <c r="Z27" s="176"/>
-      <c r="AA27" s="173"/>
-      <c r="AB27" s="173"/>
-      <c r="AC27" s="173"/>
-    </row>
-    <row r="28" spans="2:29">
+      <c r="N27" s="181"/>
+      <c r="O27" s="190"/>
+      <c r="P27" s="190"/>
+      <c r="Q27" s="184"/>
+      <c r="R27" s="167"/>
+      <c r="S27" s="167"/>
+      <c r="T27" s="167"/>
+      <c r="U27" s="173"/>
+      <c r="V27" s="152"/>
+      <c r="W27" s="152"/>
+      <c r="X27" s="187"/>
+      <c r="Y27" s="158"/>
+      <c r="Z27" s="158"/>
+      <c r="AA27" s="155"/>
+      <c r="AB27" s="155"/>
+      <c r="AC27" s="155"/>
+    </row>
+    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B28" s="61" t="s">
         <v>107</v>
       </c>
@@ -5174,24 +5298,24 @@
       <c r="K28" s="78"/>
       <c r="L28" s="78"/>
       <c r="M28" s="78"/>
-      <c r="N28" s="191"/>
-      <c r="O28" s="155"/>
-      <c r="P28" s="155"/>
-      <c r="Q28" s="149"/>
-      <c r="R28" s="146"/>
-      <c r="S28" s="146"/>
-      <c r="T28" s="146"/>
-      <c r="U28" s="152"/>
-      <c r="V28" s="200"/>
-      <c r="W28" s="200"/>
-      <c r="X28" s="201"/>
-      <c r="Y28" s="176"/>
-      <c r="Z28" s="176"/>
-      <c r="AA28" s="173"/>
-      <c r="AB28" s="173"/>
-      <c r="AC28" s="173"/>
-    </row>
-    <row r="29" spans="2:29">
+      <c r="N28" s="181"/>
+      <c r="O28" s="190"/>
+      <c r="P28" s="190"/>
+      <c r="Q28" s="184"/>
+      <c r="R28" s="167"/>
+      <c r="S28" s="167"/>
+      <c r="T28" s="167"/>
+      <c r="U28" s="173"/>
+      <c r="V28" s="152"/>
+      <c r="W28" s="152"/>
+      <c r="X28" s="187"/>
+      <c r="Y28" s="158"/>
+      <c r="Z28" s="158"/>
+      <c r="AA28" s="155"/>
+      <c r="AB28" s="155"/>
+      <c r="AC28" s="155"/>
+    </row>
+    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B29" s="67"/>
       <c r="C29" s="67"/>
       <c r="D29" s="68"/>
@@ -5208,24 +5332,24 @@
       <c r="K29" s="78"/>
       <c r="L29" s="78"/>
       <c r="M29" s="78"/>
-      <c r="N29" s="191"/>
-      <c r="O29" s="155"/>
-      <c r="P29" s="155"/>
-      <c r="Q29" s="149"/>
-      <c r="R29" s="146"/>
-      <c r="S29" s="146"/>
-      <c r="T29" s="146"/>
-      <c r="U29" s="152"/>
-      <c r="V29" s="200"/>
-      <c r="W29" s="200"/>
-      <c r="X29" s="201"/>
-      <c r="Y29" s="176"/>
-      <c r="Z29" s="176"/>
-      <c r="AA29" s="173"/>
-      <c r="AB29" s="173"/>
-      <c r="AC29" s="173"/>
-    </row>
-    <row r="30" spans="2:29">
+      <c r="N29" s="181"/>
+      <c r="O29" s="190"/>
+      <c r="P29" s="190"/>
+      <c r="Q29" s="184"/>
+      <c r="R29" s="167"/>
+      <c r="S29" s="167"/>
+      <c r="T29" s="167"/>
+      <c r="U29" s="173"/>
+      <c r="V29" s="152"/>
+      <c r="W29" s="152"/>
+      <c r="X29" s="187"/>
+      <c r="Y29" s="158"/>
+      <c r="Z29" s="158"/>
+      <c r="AA29" s="155"/>
+      <c r="AB29" s="155"/>
+      <c r="AC29" s="155"/>
+    </row>
+    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
       <c r="D30" s="68"/>
@@ -5242,24 +5366,24 @@
       <c r="K30" s="78"/>
       <c r="L30" s="78"/>
       <c r="M30" s="78"/>
-      <c r="N30" s="191"/>
-      <c r="O30" s="155"/>
-      <c r="P30" s="155"/>
-      <c r="Q30" s="149"/>
-      <c r="R30" s="146"/>
-      <c r="S30" s="146"/>
-      <c r="T30" s="146"/>
-      <c r="U30" s="152"/>
-      <c r="V30" s="200"/>
-      <c r="W30" s="200"/>
-      <c r="X30" s="201"/>
-      <c r="Y30" s="176"/>
-      <c r="Z30" s="176"/>
-      <c r="AA30" s="173"/>
-      <c r="AB30" s="173"/>
-      <c r="AC30" s="173"/>
-    </row>
-    <row r="31" spans="2:29">
+      <c r="N30" s="181"/>
+      <c r="O30" s="190"/>
+      <c r="P30" s="190"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="167"/>
+      <c r="S30" s="167"/>
+      <c r="T30" s="167"/>
+      <c r="U30" s="173"/>
+      <c r="V30" s="152"/>
+      <c r="W30" s="152"/>
+      <c r="X30" s="187"/>
+      <c r="Y30" s="158"/>
+      <c r="Z30" s="158"/>
+      <c r="AA30" s="155"/>
+      <c r="AB30" s="155"/>
+      <c r="AC30" s="155"/>
+    </row>
+    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B31" s="67"/>
       <c r="C31" s="67"/>
       <c r="D31" s="68"/>
@@ -5276,24 +5400,24 @@
       <c r="K31" s="78"/>
       <c r="L31" s="78"/>
       <c r="M31" s="78"/>
-      <c r="N31" s="191"/>
-      <c r="O31" s="155"/>
-      <c r="P31" s="155"/>
-      <c r="Q31" s="149"/>
-      <c r="R31" s="146"/>
-      <c r="S31" s="146"/>
-      <c r="T31" s="146"/>
-      <c r="U31" s="152"/>
-      <c r="V31" s="200"/>
-      <c r="W31" s="200"/>
-      <c r="X31" s="201"/>
-      <c r="Y31" s="176"/>
-      <c r="Z31" s="176"/>
-      <c r="AA31" s="173"/>
-      <c r="AB31" s="173"/>
-      <c r="AC31" s="173"/>
-    </row>
-    <row r="32" spans="2:29">
+      <c r="N31" s="181"/>
+      <c r="O31" s="190"/>
+      <c r="P31" s="190"/>
+      <c r="Q31" s="184"/>
+      <c r="R31" s="167"/>
+      <c r="S31" s="167"/>
+      <c r="T31" s="167"/>
+      <c r="U31" s="173"/>
+      <c r="V31" s="152"/>
+      <c r="W31" s="152"/>
+      <c r="X31" s="187"/>
+      <c r="Y31" s="158"/>
+      <c r="Z31" s="158"/>
+      <c r="AA31" s="155"/>
+      <c r="AB31" s="155"/>
+      <c r="AC31" s="155"/>
+    </row>
+    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B32" s="61" t="s">
         <v>107</v>
       </c>
@@ -5324,24 +5448,24 @@
       </c>
       <c r="L32" s="78"/>
       <c r="M32" s="78"/>
-      <c r="N32" s="192"/>
-      <c r="O32" s="156"/>
-      <c r="P32" s="156"/>
-      <c r="Q32" s="150"/>
-      <c r="R32" s="147"/>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="153"/>
-      <c r="V32" s="202"/>
-      <c r="W32" s="202"/>
-      <c r="X32" s="203"/>
-      <c r="Y32" s="177"/>
-      <c r="Z32" s="177"/>
-      <c r="AA32" s="174"/>
-      <c r="AB32" s="174"/>
-      <c r="AC32" s="174"/>
-    </row>
-    <row r="33" spans="2:29" ht="24">
+      <c r="N32" s="182"/>
+      <c r="O32" s="191"/>
+      <c r="P32" s="191"/>
+      <c r="Q32" s="185"/>
+      <c r="R32" s="168"/>
+      <c r="S32" s="168"/>
+      <c r="T32" s="168"/>
+      <c r="U32" s="174"/>
+      <c r="V32" s="153"/>
+      <c r="W32" s="153"/>
+      <c r="X32" s="188"/>
+      <c r="Y32" s="159"/>
+      <c r="Z32" s="159"/>
+      <c r="AA32" s="156"/>
+      <c r="AB32" s="156"/>
+      <c r="AC32" s="156"/>
+    </row>
+    <row r="33" spans="2:29" ht="24" x14ac:dyDescent="0.2">
       <c r="B33" s="69" t="s">
         <v>107</v>
       </c>
@@ -5407,7 +5531,7 @@
       <c r="AB33" s="80"/>
       <c r="AC33" s="80"/>
     </row>
-    <row r="34" spans="2:29">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B34" s="69" t="s">
         <v>107</v>
       </c>
@@ -5458,7 +5582,7 @@
       <c r="W34" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="X34" s="193" t="s">
+      <c r="X34" s="110" t="s">
         <v>117</v>
       </c>
       <c r="Y34" s="59"/>
@@ -5467,7 +5591,7 @@
       <c r="AB34" s="80"/>
       <c r="AC34" s="80"/>
     </row>
-    <row r="35" spans="2:29">
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B35" s="69" t="s">
         <v>107</v>
       </c>
@@ -5520,7 +5644,7 @@
       <c r="W35" s="75" t="s">
         <v>125</v>
       </c>
-      <c r="X35" s="193" t="s">
+      <c r="X35" s="110" t="s">
         <v>117</v>
       </c>
       <c r="Y35" s="59"/>
@@ -5529,7 +5653,7 @@
       <c r="AB35" s="80"/>
       <c r="AC35" s="80"/>
     </row>
-    <row r="36" spans="2:29">
+    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B36" s="69" t="s">
         <v>107</v>
       </c>
@@ -5595,7 +5719,7 @@
       <c r="AB36" s="80"/>
       <c r="AC36" s="80"/>
     </row>
-    <row r="37" spans="2:29">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="69" t="s">
         <v>107</v>
       </c>
@@ -5661,7 +5785,7 @@
       <c r="AB37" s="80"/>
       <c r="AC37" s="80"/>
     </row>
-    <row r="38" spans="2:29">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B38" s="69" t="s">
         <v>107</v>
       </c>
@@ -5712,10 +5836,10 @@
       <c r="U38" s="77" t="s">
         <v>138</v>
       </c>
-      <c r="V38" s="193" t="s">
+      <c r="V38" s="110" t="s">
         <v>95</v>
       </c>
-      <c r="W38" s="193" t="s">
+      <c r="W38" s="110" t="s">
         <v>95</v>
       </c>
       <c r="X38" s="75" t="s">
@@ -5729,7 +5853,7 @@
       <c r="AB38" s="59"/>
       <c r="AC38" s="59"/>
     </row>
-    <row r="39" spans="2:29" ht="24">
+    <row r="39" spans="2:29" ht="24" x14ac:dyDescent="0.2">
       <c r="B39" s="69" t="s">
         <v>107</v>
       </c>
@@ -5778,13 +5902,13 @@
       <c r="U39" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V39" s="193" t="s">
+      <c r="V39" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="W39" s="193" t="s">
+      <c r="W39" s="110" t="s">
         <v>133</v>
       </c>
-      <c r="X39" s="193" t="s">
+      <c r="X39" s="110" t="s">
         <v>115</v>
       </c>
       <c r="Y39" s="59">
@@ -5795,7 +5919,7 @@
       <c r="AB39" s="59"/>
       <c r="AC39" s="59"/>
     </row>
-    <row r="40" spans="2:29">
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B40" s="69" t="s">
         <v>107</v>
       </c>
@@ -5846,7 +5970,7 @@
       <c r="W40" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="X40" s="193" t="s">
+      <c r="X40" s="110" t="s">
         <v>117</v>
       </c>
       <c r="Y40" s="59"/>
@@ -5855,7 +5979,7 @@
       <c r="AB40" s="80"/>
       <c r="AC40" s="80"/>
     </row>
-    <row r="41" spans="2:29" ht="24">
+    <row r="41" spans="2:29" ht="24" x14ac:dyDescent="0.2">
       <c r="B41" s="69" t="s">
         <v>107</v>
       </c>
@@ -5906,7 +6030,7 @@
       <c r="W41" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="X41" s="193" t="s">
+      <c r="X41" s="110" t="s">
         <v>117</v>
       </c>
       <c r="Y41" s="59"/>
@@ -5915,7 +6039,7 @@
       <c r="AB41" s="80"/>
       <c r="AC41" s="80"/>
     </row>
-    <row r="42" spans="2:29">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B42" s="86" t="s">
         <v>107</v>
       </c>
@@ -5983,7 +6107,7 @@
       <c r="AB42" s="80"/>
       <c r="AC42" s="80"/>
     </row>
-    <row r="43" spans="2:29">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B43" s="89"/>
       <c r="C43" s="89"/>
       <c r="D43" s="90"/>
@@ -6020,7 +6144,7 @@
       <c r="W43" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="X43" s="194" t="s">
+      <c r="X43" s="111" t="s">
         <v>118</v>
       </c>
       <c r="Y43" s="74">
@@ -6031,7 +6155,7 @@
       <c r="AB43" s="80"/>
       <c r="AC43" s="80"/>
     </row>
-    <row r="44" spans="2:29">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B44" s="89"/>
       <c r="C44" s="89"/>
       <c r="D44" s="90"/>
@@ -6068,7 +6192,7 @@
       <c r="W44" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="X44" s="194" t="s">
+      <c r="X44" s="111" t="s">
         <v>118</v>
       </c>
       <c r="Y44" s="74">
@@ -6079,7 +6203,7 @@
       <c r="AB44" s="80"/>
       <c r="AC44" s="80"/>
     </row>
-    <row r="45" spans="2:29">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B45" s="89"/>
       <c r="C45" s="89"/>
       <c r="D45" s="90"/>
@@ -6114,7 +6238,7 @@
       <c r="W45" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="X45" s="194" t="s">
+      <c r="X45" s="111" t="s">
         <v>117</v>
       </c>
       <c r="Y45" s="74"/>
@@ -6123,80 +6247,81 @@
       <c r="AB45" s="80"/>
       <c r="AC45" s="80"/>
     </row>
-    <row r="46" spans="2:29">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F46" s="56"/>
     </row>
-    <row r="47" spans="2:29">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F47" s="56"/>
     </row>
-    <row r="48" spans="2:29">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F48" s="56"/>
     </row>
-    <row r="49" spans="6:6">
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F49" s="56"/>
     </row>
-    <row r="50" spans="6:6">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F50" s="56"/>
     </row>
-    <row r="51" spans="6:6">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F51" s="56"/>
     </row>
-    <row r="52" spans="6:6">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F52" s="56"/>
     </row>
-    <row r="53" spans="6:6">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F53" s="56"/>
     </row>
-    <row r="54" spans="6:6">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F54" s="56"/>
     </row>
-    <row r="55" spans="6:6">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F55" s="56"/>
     </row>
-    <row r="56" spans="6:6">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F56" s="56"/>
     </row>
-    <row r="57" spans="6:6">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F57" s="56"/>
     </row>
-    <row r="58" spans="6:6">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F58" s="56"/>
     </row>
-    <row r="59" spans="6:6">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F59" s="56"/>
     </row>
-    <row r="60" spans="6:6">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F60" s="56"/>
     </row>
-    <row r="61" spans="6:6">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F61" s="56"/>
     </row>
-    <row r="62" spans="6:6">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F62" s="56"/>
     </row>
-    <row r="63" spans="6:6">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F63" s="56"/>
     </row>
-    <row r="64" spans="6:6">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F64" s="56"/>
     </row>
-    <row r="65" spans="6:6">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F65" s="56"/>
     </row>
-    <row r="66" spans="6:6">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F66" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="W25:W32"/>
-    <mergeCell ref="AC9:AC11"/>
-    <mergeCell ref="AB25:AB32"/>
-    <mergeCell ref="AC25:AC32"/>
-    <mergeCell ref="Y25:Y32"/>
-    <mergeCell ref="Z25:Z32"/>
-    <mergeCell ref="AA25:AA32"/>
+    <mergeCell ref="N25:N32"/>
+    <mergeCell ref="R25:R32"/>
+    <mergeCell ref="Q25:Q32"/>
+    <mergeCell ref="V25:V32"/>
+    <mergeCell ref="X25:X32"/>
+    <mergeCell ref="T25:T32"/>
+    <mergeCell ref="U25:U32"/>
+    <mergeCell ref="O25:O32"/>
+    <mergeCell ref="P25:P32"/>
+    <mergeCell ref="S25:S32"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
@@ -6213,16 +6338,15 @@
     <mergeCell ref="AB9:AB11"/>
     <mergeCell ref="S9:S11"/>
     <mergeCell ref="W9:W11"/>
-    <mergeCell ref="N25:N32"/>
-    <mergeCell ref="R25:R32"/>
-    <mergeCell ref="Q25:Q32"/>
-    <mergeCell ref="V25:V32"/>
-    <mergeCell ref="X25:X32"/>
-    <mergeCell ref="T25:T32"/>
-    <mergeCell ref="U25:U32"/>
-    <mergeCell ref="O25:O32"/>
-    <mergeCell ref="P25:P32"/>
-    <mergeCell ref="S25:S32"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="W25:W32"/>
+    <mergeCell ref="AC9:AC11"/>
+    <mergeCell ref="AB25:AB32"/>
+    <mergeCell ref="AC25:AC32"/>
+    <mergeCell ref="Y25:Y32"/>
+    <mergeCell ref="Z25:Z32"/>
+    <mergeCell ref="AA25:AA32"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -6232,29 +6356,54 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
-    <oleObject progId="Visio.Drawing.11" shapeId="20481" r:id="rId3"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="20481" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>22</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="20481" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6267,7 +6416,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -6302,7 +6451,7 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
       <c r="Q1" s="52"/>
       <c r="R1" s="52"/>
       <c r="S1" s="52"/>
@@ -6310,45 +6459,45 @@
       <c r="U1" s="52"/>
       <c r="V1" s="52"/>
     </row>
-    <row r="2" spans="2:29">
-      <c r="B2" s="159" t="s">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B2" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="157" t="s">
+      <c r="O2" s="164"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="161"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="161"/>
+      <c r="AB2" s="161"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25">
+    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -6432,7 +6581,7 @@
       </c>
       <c r="AC3" s="38"/>
     </row>
-    <row r="4" spans="2:29" s="3" customFormat="1">
+    <row r="4" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
       <c r="D4" s="90"/>
@@ -6470,7 +6619,7 @@
       <c r="AB4" s="80"/>
       <c r="AC4" s="80"/>
     </row>
-    <row r="5" spans="2:29" s="3" customFormat="1">
+    <row r="5" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
       <c r="D5" s="90"/>
@@ -6508,7 +6657,7 @@
       <c r="AB5" s="80"/>
       <c r="AC5" s="80"/>
     </row>
-    <row r="6" spans="2:29" s="3" customFormat="1">
+    <row r="6" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
       <c r="D6" s="90"/>
@@ -6546,7 +6695,7 @@
       <c r="AB6" s="80"/>
       <c r="AC6" s="80"/>
     </row>
-    <row r="7" spans="2:29" s="3" customFormat="1">
+    <row r="7" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="68"/>
       <c r="C7" s="68"/>
       <c r="D7" s="90"/>
@@ -6584,7 +6733,7 @@
       <c r="AB7" s="80"/>
       <c r="AC7" s="80"/>
     </row>
-    <row r="8" spans="2:29">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B8" s="79" t="s">
         <v>107</v>
       </c>
@@ -6650,7 +6799,7 @@
       <c r="AB8" s="80"/>
       <c r="AC8" s="80"/>
     </row>
-    <row r="9" spans="2:29" s="3" customFormat="1">
+    <row r="9" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="79" t="s">
         <v>107</v>
       </c>
@@ -6679,42 +6828,42 @@
       </c>
       <c r="L9" s="80"/>
       <c r="M9" s="97"/>
-      <c r="N9" s="178" t="s">
+      <c r="N9" s="192" t="s">
         <v>148</v>
       </c>
-      <c r="O9" s="178"/>
-      <c r="P9" s="178"/>
-      <c r="Q9" s="180" t="s">
-        <v>104</v>
-      </c>
-      <c r="R9" s="180" t="s">
-        <v>164</v>
-      </c>
-      <c r="S9" s="180" t="s">
-        <v>164</v>
-      </c>
-      <c r="T9" s="178"/>
-      <c r="U9" s="180" t="s">
+      <c r="O9" s="192"/>
+      <c r="P9" s="192"/>
+      <c r="Q9" s="194" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="194" t="s">
+        <v>164</v>
+      </c>
+      <c r="S9" s="194" t="s">
+        <v>164</v>
+      </c>
+      <c r="T9" s="192"/>
+      <c r="U9" s="194" t="s">
         <v>138</v>
       </c>
-      <c r="V9" s="180" t="s">
+      <c r="V9" s="194" t="s">
         <v>142</v>
       </c>
-      <c r="W9" s="180" t="s">
+      <c r="W9" s="194" t="s">
         <v>142</v>
       </c>
-      <c r="X9" s="178" t="s">
+      <c r="X9" s="192" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" s="178">
+      <c r="Y9" s="192">
         <v>2</v>
       </c>
-      <c r="Z9" s="178"/>
-      <c r="AA9" s="178"/>
-      <c r="AB9" s="178"/>
-      <c r="AC9" s="178"/>
-    </row>
-    <row r="10" spans="2:29" s="3" customFormat="1">
+      <c r="Z9" s="192"/>
+      <c r="AA9" s="192"/>
+      <c r="AB9" s="192"/>
+      <c r="AC9" s="192"/>
+    </row>
+    <row r="10" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="79" t="s">
         <v>107</v>
       </c>
@@ -6743,38 +6892,38 @@
       </c>
       <c r="L10" s="80"/>
       <c r="M10" s="96"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="179"/>
-      <c r="P10" s="179"/>
-      <c r="Q10" s="181" t="s">
-        <v>104</v>
-      </c>
-      <c r="R10" s="181" t="s">
+      <c r="N10" s="193"/>
+      <c r="O10" s="193"/>
+      <c r="P10" s="193"/>
+      <c r="Q10" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="R10" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="S10" s="181"/>
-      <c r="T10" s="179"/>
-      <c r="U10" s="181" t="s">
+      <c r="S10" s="195"/>
+      <c r="T10" s="193"/>
+      <c r="U10" s="195" t="s">
         <v>119</v>
       </c>
-      <c r="V10" s="181" t="s">
+      <c r="V10" s="195" t="s">
         <v>131</v>
       </c>
-      <c r="W10" s="181" t="s">
+      <c r="W10" s="195" t="s">
         <v>131</v>
       </c>
-      <c r="X10" s="179" t="s">
+      <c r="X10" s="193" t="s">
         <v>115</v>
       </c>
-      <c r="Y10" s="179">
+      <c r="Y10" s="193">
         <v>2</v>
       </c>
-      <c r="Z10" s="179"/>
-      <c r="AA10" s="179"/>
-      <c r="AB10" s="179"/>
-      <c r="AC10" s="179"/>
-    </row>
-    <row r="11" spans="2:29" s="3" customFormat="1">
+      <c r="Z10" s="193"/>
+      <c r="AA10" s="193"/>
+      <c r="AB10" s="193"/>
+      <c r="AC10" s="193"/>
+    </row>
+    <row r="11" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="79" t="s">
         <v>107</v>
       </c>
@@ -6801,36 +6950,36 @@
       <c r="K11" s="59"/>
       <c r="L11" s="80"/>
       <c r="M11" s="97"/>
-      <c r="N11" s="179"/>
-      <c r="O11" s="179"/>
-      <c r="P11" s="179"/>
-      <c r="Q11" s="181" t="s">
-        <v>104</v>
-      </c>
-      <c r="R11" s="181" t="s">
+      <c r="N11" s="193"/>
+      <c r="O11" s="193"/>
+      <c r="P11" s="193"/>
+      <c r="Q11" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="S11" s="181"/>
-      <c r="T11" s="179"/>
-      <c r="U11" s="181" t="s">
+      <c r="S11" s="195"/>
+      <c r="T11" s="193"/>
+      <c r="U11" s="195" t="s">
         <v>119</v>
       </c>
-      <c r="V11" s="181" t="s">
+      <c r="V11" s="195" t="s">
         <v>130</v>
       </c>
-      <c r="W11" s="181" t="s">
+      <c r="W11" s="195" t="s">
         <v>130</v>
       </c>
-      <c r="X11" s="179" t="s">
+      <c r="X11" s="193" t="s">
         <v>117</v>
       </c>
-      <c r="Y11" s="179"/>
-      <c r="Z11" s="179"/>
-      <c r="AA11" s="179"/>
-      <c r="AB11" s="179"/>
-      <c r="AC11" s="179"/>
-    </row>
-    <row r="12" spans="2:29" s="3" customFormat="1">
+      <c r="Y11" s="193"/>
+      <c r="Z11" s="193"/>
+      <c r="AA11" s="193"/>
+      <c r="AB11" s="193"/>
+      <c r="AC11" s="193"/>
+    </row>
+    <row r="12" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="79" t="s">
         <v>107</v>
       </c>
@@ -6857,36 +7006,36 @@
       <c r="K12" s="59"/>
       <c r="L12" s="80"/>
       <c r="M12" s="97"/>
-      <c r="N12" s="179"/>
-      <c r="O12" s="179"/>
-      <c r="P12" s="179"/>
-      <c r="Q12" s="181" t="s">
-        <v>104</v>
-      </c>
-      <c r="R12" s="181" t="s">
+      <c r="N12" s="193"/>
+      <c r="O12" s="193"/>
+      <c r="P12" s="193"/>
+      <c r="Q12" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="R12" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="S12" s="181"/>
-      <c r="T12" s="179"/>
-      <c r="U12" s="181" t="s">
+      <c r="S12" s="195"/>
+      <c r="T12" s="193"/>
+      <c r="U12" s="195" t="s">
         <v>119</v>
       </c>
-      <c r="V12" s="181" t="s">
+      <c r="V12" s="195" t="s">
         <v>125</v>
       </c>
-      <c r="W12" s="181" t="s">
+      <c r="W12" s="195" t="s">
         <v>125</v>
       </c>
-      <c r="X12" s="179" t="s">
+      <c r="X12" s="193" t="s">
         <v>117</v>
       </c>
-      <c r="Y12" s="179"/>
-      <c r="Z12" s="179"/>
-      <c r="AA12" s="179"/>
-      <c r="AB12" s="179"/>
-      <c r="AC12" s="179"/>
-    </row>
-    <row r="13" spans="2:29" s="3" customFormat="1">
+      <c r="Y12" s="193"/>
+      <c r="Z12" s="193"/>
+      <c r="AA12" s="193"/>
+      <c r="AB12" s="193"/>
+      <c r="AC12" s="193"/>
+    </row>
+    <row r="13" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="79" t="s">
         <v>107</v>
       </c>
@@ -6915,38 +7064,38 @@
       </c>
       <c r="L13" s="80"/>
       <c r="M13" s="97"/>
-      <c r="N13" s="179"/>
-      <c r="O13" s="179"/>
-      <c r="P13" s="179"/>
-      <c r="Q13" s="181" t="s">
-        <v>104</v>
-      </c>
-      <c r="R13" s="181" t="s">
+      <c r="N13" s="193"/>
+      <c r="O13" s="193"/>
+      <c r="P13" s="193"/>
+      <c r="Q13" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="R13" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="S13" s="181"/>
-      <c r="T13" s="179"/>
-      <c r="U13" s="181" t="s">
+      <c r="S13" s="195"/>
+      <c r="T13" s="193"/>
+      <c r="U13" s="195" t="s">
         <v>119</v>
       </c>
-      <c r="V13" s="181" t="s">
+      <c r="V13" s="195" t="s">
         <v>127</v>
       </c>
-      <c r="W13" s="181" t="s">
+      <c r="W13" s="195" t="s">
         <v>127</v>
       </c>
-      <c r="X13" s="179" t="s">
+      <c r="X13" s="193" t="s">
         <v>137</v>
       </c>
-      <c r="Y13" s="179">
+      <c r="Y13" s="193">
         <v>1</v>
       </c>
-      <c r="Z13" s="179"/>
-      <c r="AA13" s="179"/>
-      <c r="AB13" s="179"/>
-      <c r="AC13" s="179"/>
-    </row>
-    <row r="14" spans="2:29" s="3" customFormat="1">
+      <c r="Z13" s="193"/>
+      <c r="AA13" s="193"/>
+      <c r="AB13" s="193"/>
+      <c r="AC13" s="193"/>
+    </row>
+    <row r="14" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="79" t="s">
         <v>107</v>
       </c>
@@ -6977,40 +7126,40 @@
         <v>2</v>
       </c>
       <c r="M14" s="78"/>
-      <c r="N14" s="179"/>
-      <c r="O14" s="179"/>
-      <c r="P14" s="179"/>
-      <c r="Q14" s="181" t="s">
-        <v>104</v>
-      </c>
-      <c r="R14" s="181" t="s">
+      <c r="N14" s="193"/>
+      <c r="O14" s="193"/>
+      <c r="P14" s="193"/>
+      <c r="Q14" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="R14" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="S14" s="181"/>
-      <c r="T14" s="179"/>
-      <c r="U14" s="181" t="s">
+      <c r="S14" s="195"/>
+      <c r="T14" s="193"/>
+      <c r="U14" s="195" t="s">
         <v>119</v>
       </c>
-      <c r="V14" s="181" t="s">
+      <c r="V14" s="195" t="s">
         <v>94</v>
       </c>
-      <c r="W14" s="181" t="s">
+      <c r="W14" s="195" t="s">
         <v>94</v>
       </c>
-      <c r="X14" s="179" t="s">
+      <c r="X14" s="193" t="s">
         <v>115</v>
       </c>
-      <c r="Y14" s="179">
+      <c r="Y14" s="193">
         <v>8</v>
       </c>
-      <c r="Z14" s="179">
+      <c r="Z14" s="193">
         <v>2</v>
       </c>
-      <c r="AA14" s="179"/>
-      <c r="AB14" s="179"/>
-      <c r="AC14" s="179"/>
-    </row>
-    <row r="15" spans="2:29" s="3" customFormat="1">
+      <c r="AA14" s="193"/>
+      <c r="AB14" s="193"/>
+      <c r="AC14" s="193"/>
+    </row>
+    <row r="15" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="87" t="s">
         <v>107</v>
       </c>
@@ -7039,38 +7188,38 @@
       </c>
       <c r="L15" s="82"/>
       <c r="M15" s="96"/>
-      <c r="N15" s="179"/>
-      <c r="O15" s="179"/>
-      <c r="P15" s="179"/>
-      <c r="Q15" s="181" t="s">
-        <v>104</v>
-      </c>
-      <c r="R15" s="181" t="s">
+      <c r="N15" s="193"/>
+      <c r="O15" s="193"/>
+      <c r="P15" s="193"/>
+      <c r="Q15" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="R15" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="S15" s="181"/>
-      <c r="T15" s="179"/>
-      <c r="U15" s="182" t="s">
+      <c r="S15" s="195"/>
+      <c r="T15" s="193"/>
+      <c r="U15" s="196" t="s">
         <v>119</v>
       </c>
-      <c r="V15" s="181" t="s">
+      <c r="V15" s="195" t="s">
         <v>132</v>
       </c>
-      <c r="W15" s="181" t="s">
+      <c r="W15" s="195" t="s">
         <v>132</v>
       </c>
-      <c r="X15" s="179" t="s">
+      <c r="X15" s="193" t="s">
         <v>115</v>
       </c>
-      <c r="Y15" s="179">
+      <c r="Y15" s="193">
         <v>5</v>
       </c>
-      <c r="Z15" s="179"/>
-      <c r="AA15" s="179"/>
-      <c r="AB15" s="179"/>
-      <c r="AC15" s="179"/>
-    </row>
-    <row r="16" spans="2:29" s="3" customFormat="1" ht="60">
+      <c r="Z15" s="193"/>
+      <c r="AA15" s="193"/>
+      <c r="AB15" s="193"/>
+      <c r="AC15" s="193"/>
+    </row>
+    <row r="16" spans="2:29" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="B16" s="100" t="s">
         <v>107</v>
       </c>
@@ -7132,7 +7281,7 @@
       <c r="AB16" s="80"/>
       <c r="AC16" s="80"/>
     </row>
-    <row r="17" spans="2:29" ht="96">
+    <row r="17" spans="2:29" ht="96" x14ac:dyDescent="0.2">
       <c r="B17" s="100" t="s">
         <v>107</v>
       </c>
@@ -7194,7 +7343,7 @@
       <c r="AB17" s="80"/>
       <c r="AC17" s="80"/>
     </row>
-    <row r="18" spans="2:29" ht="324">
+    <row r="18" spans="2:29" ht="348" x14ac:dyDescent="0.2">
       <c r="B18" s="67"/>
       <c r="C18" s="67"/>
       <c r="D18" s="68"/>
@@ -7242,67 +7391,59 @@
       <c r="AB18" s="59"/>
       <c r="AC18" s="59"/>
     </row>
-    <row r="19" spans="2:29">
+    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F19" s="56"/>
     </row>
-    <row r="20" spans="2:29">
+    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F20" s="56"/>
     </row>
-    <row r="21" spans="2:29">
+    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F21" s="56"/>
     </row>
-    <row r="22" spans="2:29">
+    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F22" s="56"/>
     </row>
-    <row r="23" spans="2:29">
+    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F23" s="56"/>
     </row>
-    <row r="24" spans="2:29">
+    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F24" s="56"/>
     </row>
-    <row r="25" spans="2:29">
+    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F25" s="56"/>
     </row>
-    <row r="26" spans="2:29">
+    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F26" s="56"/>
     </row>
-    <row r="27" spans="2:29">
+    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F27" s="56"/>
     </row>
-    <row r="28" spans="2:29">
+    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F28" s="56"/>
     </row>
-    <row r="29" spans="2:29">
+    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F29" s="56"/>
     </row>
-    <row r="30" spans="2:29">
+    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F30" s="56"/>
     </row>
-    <row r="31" spans="2:29">
+    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F31" s="56"/>
     </row>
-    <row r="32" spans="2:29">
+    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F32" s="56"/>
     </row>
-    <row r="33" spans="6:6">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F33" s="56"/>
     </row>
-    <row r="34" spans="6:6">
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F34" s="56"/>
     </row>
-    <row r="35" spans="6:6">
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F35" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AC9:AC15"/>
-    <mergeCell ref="U9:U15"/>
-    <mergeCell ref="V9:V15"/>
-    <mergeCell ref="X9:X15"/>
-    <mergeCell ref="Y9:Y15"/>
-    <mergeCell ref="Z9:Z15"/>
-    <mergeCell ref="AA9:AA15"/>
-    <mergeCell ref="W9:W15"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
@@ -7314,6 +7455,14 @@
     <mergeCell ref="S9:S15"/>
     <mergeCell ref="T9:T15"/>
     <mergeCell ref="AB9:AB15"/>
+    <mergeCell ref="AC9:AC15"/>
+    <mergeCell ref="U9:U15"/>
+    <mergeCell ref="V9:V15"/>
+    <mergeCell ref="X9:X15"/>
+    <mergeCell ref="Y9:Y15"/>
+    <mergeCell ref="Z9:Z15"/>
+    <mergeCell ref="AA9:AA15"/>
+    <mergeCell ref="W9:W15"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7323,7 +7472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7336,7 +7485,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -7371,7 +7520,7 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
       <c r="Q1" s="52"/>
       <c r="R1" s="52"/>
       <c r="S1" s="52"/>
@@ -7379,45 +7528,45 @@
       <c r="U1" s="52"/>
       <c r="V1" s="52"/>
     </row>
-    <row r="2" spans="2:29">
-      <c r="B2" s="159" t="s">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B2" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="161" t="s">
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+      <c r="N2" s="164" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="157" t="s">
+      <c r="O2" s="164"/>
+      <c r="P2" s="165"/>
+      <c r="Q2" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="158"/>
-      <c r="AB2" s="158"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="161"/>
+      <c r="T2" s="161"/>
+      <c r="U2" s="161"/>
+      <c r="V2" s="161"/>
+      <c r="W2" s="161"/>
+      <c r="X2" s="161"/>
+      <c r="Y2" s="161"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="161"/>
+      <c r="AB2" s="161"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25">
+    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -7501,7 +7650,7 @@
       </c>
       <c r="AC3" s="38"/>
     </row>
-    <row r="4" spans="2:29">
+    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B4" s="79" t="s">
         <v>107</v>
       </c>
@@ -7567,7 +7716,7 @@
       <c r="AB4" s="80"/>
       <c r="AC4" s="80"/>
     </row>
-    <row r="5" spans="2:29" s="3" customFormat="1">
+    <row r="5" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="79" t="s">
         <v>107</v>
       </c>
@@ -7596,42 +7745,42 @@
       </c>
       <c r="L5" s="80"/>
       <c r="M5" s="97"/>
-      <c r="N5" s="178" t="s">
+      <c r="N5" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="O5" s="183"/>
-      <c r="P5" s="183"/>
-      <c r="Q5" s="180" t="s">
-        <v>104</v>
-      </c>
-      <c r="R5" s="180" t="s">
-        <v>164</v>
-      </c>
-      <c r="S5" s="180" t="s">
-        <v>164</v>
-      </c>
-      <c r="T5" s="178"/>
-      <c r="U5" s="178" t="s">
+      <c r="O5" s="201"/>
+      <c r="P5" s="201"/>
+      <c r="Q5" s="194" t="s">
+        <v>104</v>
+      </c>
+      <c r="R5" s="194" t="s">
+        <v>164</v>
+      </c>
+      <c r="S5" s="194" t="s">
+        <v>164</v>
+      </c>
+      <c r="T5" s="192"/>
+      <c r="U5" s="192" t="s">
         <v>138</v>
       </c>
-      <c r="V5" s="178" t="s">
+      <c r="V5" s="192" t="s">
         <v>142</v>
       </c>
-      <c r="W5" s="178" t="s">
+      <c r="W5" s="192" t="s">
         <v>142</v>
       </c>
-      <c r="X5" s="178" t="s">
+      <c r="X5" s="192" t="s">
         <v>118</v>
       </c>
-      <c r="Y5" s="187">
+      <c r="Y5" s="198">
         <v>2</v>
       </c>
-      <c r="Z5" s="178"/>
-      <c r="AA5" s="183"/>
-      <c r="AB5" s="183"/>
-      <c r="AC5" s="183"/>
-    </row>
-    <row r="6" spans="2:29" s="3" customFormat="1" ht="24">
+      <c r="Z5" s="192"/>
+      <c r="AA5" s="201"/>
+      <c r="AB5" s="201"/>
+      <c r="AC5" s="201"/>
+    </row>
+    <row r="6" spans="2:29" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B6" s="79" t="s">
         <v>107</v>
       </c>
@@ -7660,38 +7809,38 @@
       </c>
       <c r="L6" s="80"/>
       <c r="M6" s="96"/>
-      <c r="N6" s="179"/>
-      <c r="O6" s="184"/>
-      <c r="P6" s="184"/>
-      <c r="Q6" s="181" t="s">
-        <v>104</v>
-      </c>
-      <c r="R6" s="181" t="s">
+      <c r="N6" s="193"/>
+      <c r="O6" s="202"/>
+      <c r="P6" s="202"/>
+      <c r="Q6" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="R6" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="S6" s="181"/>
-      <c r="T6" s="179"/>
-      <c r="U6" s="179" t="s">
+      <c r="S6" s="195"/>
+      <c r="T6" s="193"/>
+      <c r="U6" s="193" t="s">
         <v>119</v>
       </c>
-      <c r="V6" s="179" t="s">
+      <c r="V6" s="193" t="s">
         <v>131</v>
       </c>
-      <c r="W6" s="179" t="s">
+      <c r="W6" s="193" t="s">
         <v>131</v>
       </c>
-      <c r="X6" s="179" t="s">
+      <c r="X6" s="193" t="s">
         <v>115</v>
       </c>
-      <c r="Y6" s="188">
+      <c r="Y6" s="199">
         <v>2</v>
       </c>
-      <c r="Z6" s="179"/>
-      <c r="AA6" s="184"/>
-      <c r="AB6" s="184"/>
-      <c r="AC6" s="184"/>
-    </row>
-    <row r="7" spans="2:29" s="3" customFormat="1">
+      <c r="Z6" s="193"/>
+      <c r="AA6" s="202"/>
+      <c r="AB6" s="202"/>
+      <c r="AC6" s="202"/>
+    </row>
+    <row r="7" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="79" t="s">
         <v>107</v>
       </c>
@@ -7718,36 +7867,36 @@
       <c r="K7" s="59"/>
       <c r="L7" s="80"/>
       <c r="M7" s="97"/>
-      <c r="N7" s="179"/>
-      <c r="O7" s="184"/>
-      <c r="P7" s="184"/>
-      <c r="Q7" s="181" t="s">
-        <v>104</v>
-      </c>
-      <c r="R7" s="181" t="s">
+      <c r="N7" s="193"/>
+      <c r="O7" s="202"/>
+      <c r="P7" s="202"/>
+      <c r="Q7" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="R7" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="S7" s="181"/>
-      <c r="T7" s="179"/>
-      <c r="U7" s="179" t="s">
+      <c r="S7" s="195"/>
+      <c r="T7" s="193"/>
+      <c r="U7" s="193" t="s">
         <v>119</v>
       </c>
-      <c r="V7" s="179" t="s">
+      <c r="V7" s="193" t="s">
         <v>130</v>
       </c>
-      <c r="W7" s="179" t="s">
+      <c r="W7" s="193" t="s">
         <v>130</v>
       </c>
-      <c r="X7" s="179" t="s">
+      <c r="X7" s="193" t="s">
         <v>117</v>
       </c>
-      <c r="Y7" s="188"/>
-      <c r="Z7" s="179"/>
-      <c r="AA7" s="184"/>
-      <c r="AB7" s="184"/>
-      <c r="AC7" s="184"/>
-    </row>
-    <row r="8" spans="2:29" s="3" customFormat="1">
+      <c r="Y7" s="199"/>
+      <c r="Z7" s="193"/>
+      <c r="AA7" s="202"/>
+      <c r="AB7" s="202"/>
+      <c r="AC7" s="202"/>
+    </row>
+    <row r="8" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="79" t="s">
         <v>107</v>
       </c>
@@ -7774,36 +7923,36 @@
       <c r="K8" s="59"/>
       <c r="L8" s="80"/>
       <c r="M8" s="97"/>
-      <c r="N8" s="179"/>
-      <c r="O8" s="184"/>
-      <c r="P8" s="184"/>
-      <c r="Q8" s="181" t="s">
-        <v>104</v>
-      </c>
-      <c r="R8" s="181" t="s">
+      <c r="N8" s="193"/>
+      <c r="O8" s="202"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="R8" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="S8" s="181"/>
-      <c r="T8" s="179"/>
-      <c r="U8" s="179" t="s">
+      <c r="S8" s="195"/>
+      <c r="T8" s="193"/>
+      <c r="U8" s="193" t="s">
         <v>119</v>
       </c>
-      <c r="V8" s="179" t="s">
+      <c r="V8" s="193" t="s">
         <v>125</v>
       </c>
-      <c r="W8" s="179" t="s">
+      <c r="W8" s="193" t="s">
         <v>125</v>
       </c>
-      <c r="X8" s="179" t="s">
+      <c r="X8" s="193" t="s">
         <v>117</v>
       </c>
-      <c r="Y8" s="188"/>
-      <c r="Z8" s="179"/>
-      <c r="AA8" s="184"/>
-      <c r="AB8" s="184"/>
-      <c r="AC8" s="184"/>
-    </row>
-    <row r="9" spans="2:29" s="3" customFormat="1">
+      <c r="Y8" s="199"/>
+      <c r="Z8" s="193"/>
+      <c r="AA8" s="202"/>
+      <c r="AB8" s="202"/>
+      <c r="AC8" s="202"/>
+    </row>
+    <row r="9" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="79" t="s">
         <v>107</v>
       </c>
@@ -7832,38 +7981,38 @@
       </c>
       <c r="L9" s="80"/>
       <c r="M9" s="97"/>
-      <c r="N9" s="179"/>
-      <c r="O9" s="184"/>
-      <c r="P9" s="184"/>
-      <c r="Q9" s="181" t="s">
-        <v>104</v>
-      </c>
-      <c r="R9" s="181" t="s">
+      <c r="N9" s="193"/>
+      <c r="O9" s="202"/>
+      <c r="P9" s="202"/>
+      <c r="Q9" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="S9" s="181"/>
-      <c r="T9" s="179"/>
-      <c r="U9" s="179" t="s">
+      <c r="S9" s="195"/>
+      <c r="T9" s="193"/>
+      <c r="U9" s="193" t="s">
         <v>119</v>
       </c>
-      <c r="V9" s="179" t="s">
+      <c r="V9" s="193" t="s">
         <v>127</v>
       </c>
-      <c r="W9" s="179" t="s">
+      <c r="W9" s="193" t="s">
         <v>127</v>
       </c>
-      <c r="X9" s="179" t="s">
+      <c r="X9" s="193" t="s">
         <v>137</v>
       </c>
-      <c r="Y9" s="188">
+      <c r="Y9" s="199">
         <v>1</v>
       </c>
-      <c r="Z9" s="179"/>
-      <c r="AA9" s="184"/>
-      <c r="AB9" s="184"/>
-      <c r="AC9" s="184"/>
-    </row>
-    <row r="10" spans="2:29" s="3" customFormat="1">
+      <c r="Z9" s="193"/>
+      <c r="AA9" s="202"/>
+      <c r="AB9" s="202"/>
+      <c r="AC9" s="202"/>
+    </row>
+    <row r="10" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="79" t="s">
         <v>107</v>
       </c>
@@ -7894,40 +8043,40 @@
         <v>2</v>
       </c>
       <c r="M10" s="78"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="184"/>
-      <c r="P10" s="184"/>
-      <c r="Q10" s="181" t="s">
-        <v>104</v>
-      </c>
-      <c r="R10" s="181" t="s">
+      <c r="N10" s="193"/>
+      <c r="O10" s="202"/>
+      <c r="P10" s="202"/>
+      <c r="Q10" s="195" t="s">
+        <v>104</v>
+      </c>
+      <c r="R10" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="S10" s="181"/>
-      <c r="T10" s="179"/>
-      <c r="U10" s="179" t="s">
+      <c r="S10" s="195"/>
+      <c r="T10" s="193"/>
+      <c r="U10" s="193" t="s">
         <v>119</v>
       </c>
-      <c r="V10" s="179" t="s">
+      <c r="V10" s="193" t="s">
         <v>94</v>
       </c>
-      <c r="W10" s="179" t="s">
+      <c r="W10" s="193" t="s">
         <v>94</v>
       </c>
-      <c r="X10" s="179" t="s">
+      <c r="X10" s="193" t="s">
         <v>115</v>
       </c>
-      <c r="Y10" s="188">
+      <c r="Y10" s="199">
         <v>8</v>
       </c>
-      <c r="Z10" s="179">
+      <c r="Z10" s="193">
         <v>2</v>
       </c>
-      <c r="AA10" s="184"/>
-      <c r="AB10" s="184"/>
-      <c r="AC10" s="184"/>
-    </row>
-    <row r="11" spans="2:29" s="3" customFormat="1">
+      <c r="AA10" s="202"/>
+      <c r="AB10" s="202"/>
+      <c r="AC10" s="202"/>
+    </row>
+    <row r="11" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="87" t="s">
         <v>107</v>
       </c>
@@ -7956,38 +8105,38 @@
       </c>
       <c r="L11" s="82"/>
       <c r="M11" s="96"/>
-      <c r="N11" s="186"/>
-      <c r="O11" s="185"/>
-      <c r="P11" s="185"/>
-      <c r="Q11" s="182" t="s">
-        <v>104</v>
-      </c>
-      <c r="R11" s="182" t="s">
+      <c r="N11" s="197"/>
+      <c r="O11" s="203"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="196" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11" s="196" t="s">
         <v>120</v>
       </c>
-      <c r="S11" s="182"/>
-      <c r="T11" s="186"/>
-      <c r="U11" s="186" t="s">
+      <c r="S11" s="196"/>
+      <c r="T11" s="197"/>
+      <c r="U11" s="197" t="s">
         <v>119</v>
       </c>
-      <c r="V11" s="186" t="s">
+      <c r="V11" s="197" t="s">
         <v>132</v>
       </c>
-      <c r="W11" s="186" t="s">
+      <c r="W11" s="197" t="s">
         <v>132</v>
       </c>
-      <c r="X11" s="186" t="s">
+      <c r="X11" s="197" t="s">
         <v>115</v>
       </c>
-      <c r="Y11" s="189">
+      <c r="Y11" s="200">
         <v>5</v>
       </c>
-      <c r="Z11" s="186"/>
-      <c r="AA11" s="185"/>
-      <c r="AB11" s="185"/>
-      <c r="AC11" s="185"/>
-    </row>
-    <row r="12" spans="2:29" s="3" customFormat="1" ht="60">
+      <c r="Z11" s="197"/>
+      <c r="AA11" s="203"/>
+      <c r="AB11" s="203"/>
+      <c r="AC11" s="203"/>
+    </row>
+    <row r="12" spans="2:29" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="B12" s="87" t="s">
         <v>107</v>
       </c>
@@ -8049,7 +8198,7 @@
       <c r="AB12" s="80"/>
       <c r="AC12" s="80"/>
     </row>
-    <row r="13" spans="2:29" s="3" customFormat="1" ht="96">
+    <row r="13" spans="2:29" s="3" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="B13" s="87" t="s">
         <v>107</v>
       </c>
@@ -8111,7 +8260,7 @@
       <c r="AB13" s="80"/>
       <c r="AC13" s="80"/>
     </row>
-    <row r="14" spans="2:29" ht="324">
+    <row r="14" spans="2:29" ht="348" x14ac:dyDescent="0.2">
       <c r="B14" s="67"/>
       <c r="C14" s="67"/>
       <c r="D14" s="68"/>
@@ -8159,67 +8308,62 @@
       <c r="AB14" s="59"/>
       <c r="AC14" s="59"/>
     </row>
-    <row r="15" spans="2:29">
+    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F15" s="56"/>
     </row>
-    <row r="16" spans="2:29">
+    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
       <c r="F16" s="56"/>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="56"/>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F18" s="56"/>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F19" s="56"/>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F20" s="56"/>
     </row>
-    <row r="21" spans="6:6">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F21" s="56"/>
     </row>
-    <row r="22" spans="6:6">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F22" s="56"/>
     </row>
-    <row r="23" spans="6:6">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F23" s="56"/>
     </row>
-    <row r="24" spans="6:6">
+    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F24" s="56"/>
     </row>
-    <row r="25" spans="6:6">
+    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F25" s="56"/>
     </row>
-    <row r="26" spans="6:6">
+    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F26" s="56"/>
     </row>
-    <row r="27" spans="6:6">
+    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F27" s="56"/>
     </row>
-    <row r="28" spans="6:6">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F28" s="56"/>
     </row>
-    <row r="29" spans="6:6">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F29" s="56"/>
     </row>
-    <row r="30" spans="6:6">
+    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F30" s="56"/>
     </row>
-    <row r="31" spans="6:6">
+    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F31" s="56"/>
     </row>
-    <row r="32" spans="6:6">
+    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F32" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="X5:X11"/>
-    <mergeCell ref="Y5:Y11"/>
-    <mergeCell ref="W5:W11"/>
-    <mergeCell ref="AA5:AA11"/>
-    <mergeCell ref="AB5:AB11"/>
     <mergeCell ref="AC5:AC11"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
@@ -8234,6 +8378,11 @@
     <mergeCell ref="T5:T11"/>
     <mergeCell ref="U5:U11"/>
     <mergeCell ref="V5:V11"/>
+    <mergeCell ref="X5:X11"/>
+    <mergeCell ref="Y5:Y11"/>
+    <mergeCell ref="W5:W11"/>
+    <mergeCell ref="AA5:AA11"/>
+    <mergeCell ref="AB5:AB11"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -8243,7 +8392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8251,7 +8400,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="13" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="13" customWidth="1"/>
@@ -8259,7 +8408,7 @@
     <col min="4" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="20"/>
@@ -8279,7 +8428,7 @@
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
     </row>
-    <row r="2" spans="2:25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="19"/>
@@ -8299,7 +8448,7 @@
       <c r="X2" s="15"/>
       <c r="Y2" s="15"/>
     </row>
-    <row r="3" spans="2:25" ht="18">
+    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
       <c r="C3" s="17" t="s">
         <v>50</v>
       </c>
@@ -8324,7 +8473,7 @@
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
     </row>
-    <row r="4" spans="2:25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="E4" s="15"/>
@@ -8346,7 +8495,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
     </row>
-    <row r="6" spans="2:25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="34" t="s">
         <v>51</v>
       </c>
@@ -8354,7 +8503,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="25.5">
+    <row r="7" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="29" t="s">
         <v>48</v>
       </c>
@@ -8362,7 +8511,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="25.5">
+    <row r="8" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B8" s="29" t="s">
         <v>46</v>
       </c>
@@ -8370,7 +8519,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="25.5">
+    <row r="9" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="29" t="s">
         <v>44</v>
       </c>
@@ -8378,7 +8527,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="25.5">
+    <row r="10" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="29" t="s">
         <v>42</v>
       </c>
@@ -8386,7 +8535,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="25.5">
+    <row r="11" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B11" s="29" t="s">
         <v>40</v>
       </c>
@@ -8394,7 +8543,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="25.5">
+    <row r="12" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="29" t="s">
         <v>38</v>
       </c>
@@ -8402,7 +8551,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="25.5">
+    <row r="13" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="29" t="s">
         <v>36</v>
       </c>
@@ -8410,7 +8559,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="25.5">
+    <row r="14" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="29" t="s">
         <v>34</v>
       </c>
@@ -8418,7 +8567,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="25.5">
+    <row r="15" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="29" t="s">
         <v>32</v>
       </c>
@@ -8426,7 +8575,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="25.5">
+    <row r="16" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="29" t="s">
         <v>30</v>
       </c>
@@ -8434,7 +8583,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.5">
+    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B17" s="29" t="s">
         <v>28</v>
       </c>
@@ -8442,7 +8591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.5">
+    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B18" s="29" t="s">
         <v>26</v>
       </c>
@@ -8450,7 +8599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="25.5">
+    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="30" t="s">
         <v>24</v>
       </c>
@@ -8458,7 +8607,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.5">
+    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="29" t="s">
         <v>22</v>
       </c>
@@ -8466,7 +8615,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="25.5">
+    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B21" s="29" t="s">
         <v>20</v>
       </c>
@@ -8474,7 +8623,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5">
+    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="29" t="s">
         <v>18</v>
       </c>
@@ -8482,7 +8631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5">
+    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
         <v>16</v>
       </c>
@@ -8507,7 +8656,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8560,12 +8714,7 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8584,9 +8733,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8607,9 +8756,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - PRO_APURACAO_EXTENSAO - ATUALIZADO.xlsx
+++ b/Mapeamento P1/Atualizados - 04_12/Mapeamento Técnico - PRO_APURACAO_EXTENSAO - ATUALIZADO.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="2340" windowWidth="14700" windowHeight="5535" tabRatio="862" activeTab="2"/>
+    <workbookView xWindow="2445" yWindow="2340" windowWidth="14700" windowHeight="5535" tabRatio="862"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
     <sheet name="Origens Destinos e Definições" sheetId="10" r:id="rId2"/>
-    <sheet name="Desenho - ODS_REMUNER_DOCENTE" sheetId="16" r:id="rId3"/>
-    <sheet name="Mapeam. - ODS_REMUNER_DOCENTE" sheetId="8" r:id="rId4"/>
+    <sheet name="Desenho do Mapa" sheetId="16" r:id="rId3"/>
+    <sheet name="Mapeamento P1" sheetId="8" r:id="rId4"/>
     <sheet name="Desenho do Mapa P2" sheetId="17" r:id="rId5"/>
     <sheet name="Mapeamento P2 - Fluxo 1" sheetId="19" r:id="rId6"/>
     <sheet name="Mapeamento P2 - Fluxo 2" sheetId="18" r:id="rId7"/>
     <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="165">
   <si>
     <t>Schema</t>
   </si>
@@ -986,9 +986,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>xxxxxxxxxxxxxxxxxx</t>
-  </si>
-  <si>
     <t>Preencher com o valor Fixo '1'</t>
   </si>
   <si>
@@ -1120,25 +1117,6 @@
     </r>
   </si>
   <si>
-    <t>COD_SITUACAO_TURMA_EXTENSAO IN (4,5,6)
-AND DT_MES_ANO BETWEEN V_DT_INI_SELECAO_DESC AND V_DT_FIM_SELECAO_DESC
-AND IND_SUBSTITUICAO = 'N'
-AND DT_GERACAO_PAGAMENTO IS NOT NULL
-AND DT_SOLICITACAO_DESCONTO IS NOT NULL
-AND DT_GERACAO_DESCONTO IS NULL
-AND VAL_A_PAGAR &gt; 0
-AND QTD_VAGAS_PREENCHIDAS &gt; 0
-THEN IND_APTO_PAGAMENTO = 2</t>
-  </si>
-  <si>
-    <t>COD_SITUACAO_TURMA_EXTENSAO IN (4,5,6)
-AND DT_MES_ANO BETWEEN V_DT_INI_SELECAO_PAG AND V_DT_FIM_SELECAO_PAG
-AND DT_GERACAO_PAGAMENTO IS NULL
-AND IND_SUBSTITUICAO = 'N'
-AND VAL_A_PAGAR &gt; 0
-AND QTD_VAGAS_PREENCHIDAS &gt; 0</t>
-  </si>
-  <si>
     <t>V_DT_INI_SELECAO_PAG</t>
   </si>
   <si>
@@ -1219,12 +1197,35 @@
   <si>
     <t>REMUNETACAO_DOCENTE</t>
   </si>
+  <si>
+    <t>NOM_PROCESSO =  'PRO_APURACAO_EXTENSAO'
+AND IND_APTO_PAGAMENTO = 1
+COD_SITUACAO_TURMA_EXTENSAO IN (4,5,6)
+AND DT_MES_ANO BETWEEN V_DT_INI_SELECAO_PAG AND V_DT_FIM_SELECAO_PAG
+AND DT_GERACAO_PAGAMENTO IS NULL
+AND IND_SUBSTITUICAO = 'N'
+AND VAL_A_PAGAR &gt; 0
+AND QTD_VAGAS_PREENCHIDAS &gt; 0</t>
+  </si>
+  <si>
+    <t>NOM_PROCESSO =  'PRO_APURACAO_EXTENSAO'
+AND IND_APTO_PAGAMENTO = 1
+AND COD_SITUACAO_TURMA_EXTENSAO IN (4,5,6)
+AND DT_MES_ANO BETWEEN V_DT_INI_SELECAO_DESC AND V_DT_FIM_SELECAO_DESC
+AND IND_SUBSTITUICAO = 'N'
+AND DT_GERACAO_PAGAMENTO IS NOT NULL
+AND DT_SOLICITACAO_DESCONTO IS NOT NULL
+AND DT_GERACAO_DESCONTO IS NULL
+AND VAL_A_PAGAR &gt; 0
+AND QTD_VAGAS_PREENCHIDAS &gt; 0
+THEN IND_APTO_PAGAMENTO = 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2088,6 +2089,24 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2100,15 +2119,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2148,14 +2158,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2166,9 +2176,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2187,11 +2194,82 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2202,14 +2280,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2229,98 +2322,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2336,29 +2337,29 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2382,7 +2383,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2412,7 +2413,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2479,7 +2480,7 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2527,7 +2528,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2550,14 +2551,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2600,7 +2601,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2623,14 +2624,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2644,98 +2645,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>381000</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>31</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
-          <xdr:row>56</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15361" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s15361"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
-          <xdr:row>18</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="20481" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s20481"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2825,7 +2734,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2860,7 +2768,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -3036,15 +2943,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:J18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="13" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="13" customWidth="1"/>
@@ -3053,36 +2960,36 @@
     <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="113" t="s">
+    <row r="2" spans="2:10" ht="18" customHeight="1">
+      <c r="C2" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="119"/>
+    </row>
+    <row r="3" spans="2:10" ht="15">
+      <c r="C3" s="14" t="s">
         <v>144</v>
-      </c>
-      <c r="D2" s="113"/>
-    </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="C3" s="14" t="s">
-        <v>145</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="C4" s="14" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="C5" s="14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
       <c r="C6" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1">
       <c r="B7" s="40"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -3093,137 +3000,145 @@
       <c r="I7" s="40"/>
       <c r="J7" s="40"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="120" t="s">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
+    <row r="9" spans="2:10">
+      <c r="B9" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="122"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="123"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="124"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="124"/>
-      <c r="J10" s="125"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="124"/>
+      <c r="D9" s="124"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="124"/>
+      <c r="I9" s="124"/>
+      <c r="J9" s="125"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="126"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="41" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126" t="s">
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="127"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="129"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="130"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="27" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="26">
         <v>41235</v>
       </c>
-      <c r="D12" s="128" t="s">
+      <c r="D12" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="131" t="s">
+      <c r="E12" s="132"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="134" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="135"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="25"/>
       <c r="C13" s="24"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
-      <c r="J13" s="119"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="120"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="23"/>
       <c r="C14" s="22"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="119"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="23"/>
       <c r="C15" s="22"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="118"/>
-      <c r="J15" s="119"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="23"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="119"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="23"/>
       <c r="C17" s="22"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="134"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="134"/>
-      <c r="J17" s="135"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="115"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="23"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="134"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="134"/>
-      <c r="J18" s="135"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="114"/>
+      <c r="J18" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3234,14 +3149,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3251,17 +3158,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:J29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="13" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" style="13" customWidth="1"/>
@@ -3270,25 +3175,25 @@
     <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="18">
       <c r="C2" s="14" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D2" s="21">
         <f>Identificação!D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="15">
       <c r="C3" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D3" s="39" t="str">
         <f>Identificação!D3</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="13.5" thickBot="1">
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -3299,142 +3204,142 @@
       <c r="I4" s="40"/>
       <c r="J4" s="40"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="139" t="s">
+    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="48" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="139" t="s">
+      <c r="D7" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="85" t="s">
         <v>91</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
-      <c r="I8" s="136"/>
-      <c r="J8" s="136"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="85" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C9" s="49"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="136"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="139"/>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="49"/>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="136"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="85" t="s">
         <v>74</v>
       </c>
       <c r="C11" s="49"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="136"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D11" s="139"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="85" t="s">
         <v>80</v>
       </c>
       <c r="C12" s="49"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="136"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D12" s="139"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="85" t="s">
         <v>108</v>
       </c>
       <c r="C13" s="49"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="136"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="136"/>
-      <c r="J13" s="136"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="139"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="85" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="49"/>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D14" s="139"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="85" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="49"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-    </row>
-    <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+    </row>
+    <row r="16" spans="2:10" ht="13.5" thickBot="1">
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3445,20 +3350,20 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="137" t="s">
+    <row r="17" spans="2:10">
+      <c r="B17" s="140" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-      <c r="E17" s="138"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="138"/>
-      <c r="J17" s="138"/>
-    </row>
-    <row r="18" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C17" s="141"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+    </row>
+    <row r="18" spans="2:10" ht="23.25" customHeight="1">
       <c r="B18" s="44" t="s">
         <v>61</v>
       </c>
@@ -3468,31 +3373,31 @@
       <c r="D18" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="142" t="s">
+      <c r="E18" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="144"/>
-      <c r="G18" s="142" t="s">
+      <c r="F18" s="146"/>
+      <c r="G18" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="144"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="146"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-    </row>
-    <row r="20" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="142"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
+    </row>
+    <row r="20" spans="2:10" ht="13.5" thickBot="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3503,14 +3408,14 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="137" t="s">
+    <row r="21" spans="2:10" ht="25.5" customHeight="1">
+      <c r="B21" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C21" s="141"/>
+      <c r="D21" s="141"/>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="43" t="s">
         <v>62</v>
       </c>
@@ -3521,14 +3426,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="204" t="s">
-        <v>164</v>
+    <row r="23" spans="2:10">
+      <c r="B23" s="11" t="s">
+        <v>161</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -3539,20 +3444,20 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="139" t="s">
+    <row r="25" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B25" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="139"/>
-      <c r="D25" s="139"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="139"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="48" t="s">
         <v>67</v>
       </c>
@@ -3562,61 +3467,52 @@
       <c r="D26" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="147" t="s">
+      <c r="E26" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147" t="s">
+      <c r="F26" s="138"/>
+      <c r="G26" s="138" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="147"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H26" s="138"/>
+      <c r="I26" s="138"/>
+      <c r="J26" s="138"/>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="10"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="136"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="136"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="10"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E28" s="136"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="136"/>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="10"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
+      <c r="E29" s="136"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="E26:F26"/>
     <mergeCell ref="D12:J12"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D14:J14"/>
@@ -3633,6 +3529,15 @@
     <mergeCell ref="G18:J18"/>
     <mergeCell ref="G19:J19"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3643,65 +3548,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="15361" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>381000</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>31</xdr:col>
-                <xdr:colOff>323850</xdr:colOff>
-                <xdr:row>56</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="15361" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Visio.Drawing.11" shapeId="15361" r:id="rId3"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AF66"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3737,7 +3617,7 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:29">
       <c r="Q1" s="52"/>
       <c r="R1" s="52"/>
       <c r="S1" s="52"/>
@@ -3745,45 +3625,45 @@
       <c r="U1" s="52"/>
       <c r="V1" s="52"/>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="162" t="s">
+    <row r="2" spans="2:29">
+      <c r="B2" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164" t="s">
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="160" t="s">
+      <c r="O2" s="173"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="161"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="161"/>
-      <c r="AA2" s="161"/>
-      <c r="AB2" s="161"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="170"/>
+      <c r="X2" s="170"/>
+      <c r="Y2" s="170"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="170"/>
+      <c r="AB2" s="170"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:29" ht="23.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -3867,7 +3747,7 @@
       </c>
       <c r="AC3" s="38"/>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:29">
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
       <c r="D4" s="68"/>
@@ -3889,10 +3769,10 @@
         <v>104</v>
       </c>
       <c r="R4" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S4" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T4" s="73"/>
       <c r="U4" s="77" t="s">
@@ -3915,7 +3795,7 @@
       <c r="AB4" s="59"/>
       <c r="AC4" s="59"/>
     </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:29">
       <c r="B5" s="67"/>
       <c r="C5" s="67"/>
       <c r="D5" s="68"/>
@@ -3929,7 +3809,7 @@
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
       <c r="N5" s="63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O5" s="64"/>
       <c r="P5" s="65"/>
@@ -3937,10 +3817,10 @@
         <v>104</v>
       </c>
       <c r="R5" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S5" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T5" s="73"/>
       <c r="U5" s="77" t="s">
@@ -3963,7 +3843,7 @@
       <c r="AB5" s="59"/>
       <c r="AC5" s="59"/>
     </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:29">
       <c r="B6" s="61" t="s">
         <v>107</v>
       </c>
@@ -4003,10 +3883,10 @@
         <v>104</v>
       </c>
       <c r="R6" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S6" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T6" s="75"/>
       <c r="U6" s="77" t="s">
@@ -4029,7 +3909,7 @@
       <c r="AB6" s="59"/>
       <c r="AC6" s="59"/>
     </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:29">
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
       <c r="D7" s="68"/>
@@ -4051,10 +3931,10 @@
         <v>104</v>
       </c>
       <c r="R7" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S7" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T7" s="75"/>
       <c r="U7" s="77" t="s">
@@ -4077,7 +3957,7 @@
       <c r="AB7" s="59"/>
       <c r="AC7" s="59"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:29">
       <c r="B8" s="61" t="s">
         <v>107</v>
       </c>
@@ -4117,10 +3997,10 @@
         <v>104</v>
       </c>
       <c r="R8" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S8" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T8" s="73"/>
       <c r="U8" s="77" t="s">
@@ -4143,7 +4023,7 @@
       <c r="AB8" s="59"/>
       <c r="AC8" s="59"/>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:29">
       <c r="B9" s="61" t="s">
         <v>107</v>
       </c>
@@ -4174,42 +4054,42 @@
       </c>
       <c r="L9" s="59"/>
       <c r="M9" s="59"/>
-      <c r="N9" s="148" t="s">
+      <c r="N9" s="175" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="148" t="s">
-        <v>104</v>
-      </c>
-      <c r="R9" s="166" t="s">
-        <v>164</v>
-      </c>
-      <c r="S9" s="166" t="s">
-        <v>164</v>
-      </c>
-      <c r="T9" s="171"/>
-      <c r="U9" s="172" t="s">
+      <c r="O9" s="175"/>
+      <c r="P9" s="175"/>
+      <c r="Q9" s="175" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="151" t="s">
+        <v>161</v>
+      </c>
+      <c r="S9" s="151" t="s">
+        <v>161</v>
+      </c>
+      <c r="T9" s="180"/>
+      <c r="U9" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="V9" s="169" t="s">
+      <c r="V9" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="W9" s="169" t="s">
+      <c r="W9" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="X9" s="170" t="s">
+      <c r="X9" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" s="175">
+      <c r="Y9" s="181">
         <v>11</v>
       </c>
-      <c r="Z9" s="178"/>
-      <c r="AA9" s="179"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-    </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="Z9" s="184"/>
+      <c r="AA9" s="185"/>
+      <c r="AB9" s="175"/>
+      <c r="AC9" s="175"/>
+    </row>
+    <row r="10" spans="2:29">
       <c r="B10" s="61" t="s">
         <v>107</v>
       </c>
@@ -4230,7 +4110,7 @@
       </c>
       <c r="H10" s="59"/>
       <c r="I10" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J10" s="59" t="s">
         <v>118</v>
@@ -4240,24 +4120,24 @@
       </c>
       <c r="L10" s="59"/>
       <c r="M10" s="59"/>
-      <c r="N10" s="149"/>
-      <c r="O10" s="149"/>
-      <c r="P10" s="149"/>
-      <c r="Q10" s="149"/>
-      <c r="R10" s="167"/>
-      <c r="S10" s="167"/>
-      <c r="T10" s="171"/>
-      <c r="U10" s="173"/>
-      <c r="V10" s="169"/>
-      <c r="W10" s="169"/>
-      <c r="X10" s="170"/>
-      <c r="Y10" s="176"/>
-      <c r="Z10" s="178"/>
-      <c r="AA10" s="179"/>
-      <c r="AB10" s="149"/>
-      <c r="AC10" s="149"/>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N10" s="176"/>
+      <c r="O10" s="176"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="152"/>
+      <c r="S10" s="152"/>
+      <c r="T10" s="180"/>
+      <c r="U10" s="164"/>
+      <c r="V10" s="178"/>
+      <c r="W10" s="178"/>
+      <c r="X10" s="179"/>
+      <c r="Y10" s="182"/>
+      <c r="Z10" s="184"/>
+      <c r="AA10" s="185"/>
+      <c r="AB10" s="176"/>
+      <c r="AC10" s="176"/>
+    </row>
+    <row r="11" spans="2:29">
       <c r="B11" s="61" t="s">
         <v>107</v>
       </c>
@@ -4288,24 +4168,24 @@
       </c>
       <c r="L11" s="59"/>
       <c r="M11" s="59"/>
-      <c r="N11" s="150"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="150"/>
-      <c r="Q11" s="150"/>
-      <c r="R11" s="168"/>
-      <c r="S11" s="168"/>
-      <c r="T11" s="171"/>
-      <c r="U11" s="174"/>
-      <c r="V11" s="169"/>
-      <c r="W11" s="169"/>
-      <c r="X11" s="170"/>
-      <c r="Y11" s="177"/>
-      <c r="Z11" s="178"/>
-      <c r="AA11" s="179"/>
-      <c r="AB11" s="150"/>
-      <c r="AC11" s="150"/>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N11" s="177"/>
+      <c r="O11" s="177"/>
+      <c r="P11" s="177"/>
+      <c r="Q11" s="177"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="153"/>
+      <c r="T11" s="180"/>
+      <c r="U11" s="165"/>
+      <c r="V11" s="178"/>
+      <c r="W11" s="178"/>
+      <c r="X11" s="179"/>
+      <c r="Y11" s="183"/>
+      <c r="Z11" s="184"/>
+      <c r="AA11" s="185"/>
+      <c r="AB11" s="177"/>
+      <c r="AC11" s="177"/>
+    </row>
+    <row r="12" spans="2:29">
       <c r="B12" s="61" t="s">
         <v>107</v>
       </c>
@@ -4345,10 +4225,10 @@
         <v>104</v>
       </c>
       <c r="R12" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S12" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T12" s="73"/>
       <c r="U12" s="77" t="s">
@@ -4371,7 +4251,7 @@
       <c r="AB12" s="59"/>
       <c r="AC12" s="59"/>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:29">
       <c r="B13" s="61" t="s">
         <v>107</v>
       </c>
@@ -4392,7 +4272,7 @@
       </c>
       <c r="H13" s="59"/>
       <c r="I13" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J13" s="59" t="s">
         <v>115</v>
@@ -4411,10 +4291,10 @@
         <v>104</v>
       </c>
       <c r="R13" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S13" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T13" s="73"/>
       <c r="U13" s="77" t="s">
@@ -4437,7 +4317,7 @@
       <c r="AB13" s="59"/>
       <c r="AC13" s="59"/>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:29">
       <c r="B14" s="61" t="s">
         <v>107</v>
       </c>
@@ -4477,10 +4357,10 @@
         <v>104</v>
       </c>
       <c r="R14" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S14" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T14" s="73"/>
       <c r="U14" s="77" t="s">
@@ -4503,7 +4383,7 @@
       <c r="AB14" s="59"/>
       <c r="AC14" s="59"/>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:29">
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
       <c r="D15" s="68"/>
@@ -4525,10 +4405,10 @@
         <v>104</v>
       </c>
       <c r="R15" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S15" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T15" s="75"/>
       <c r="U15" s="77" t="s">
@@ -4553,7 +4433,7 @@
       <c r="AB15" s="59"/>
       <c r="AC15" s="59"/>
     </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:29">
       <c r="B16" s="61" t="s">
         <v>107</v>
       </c>
@@ -4595,10 +4475,10 @@
         <v>104</v>
       </c>
       <c r="R16" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S16" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T16" s="75"/>
       <c r="U16" s="77" t="s">
@@ -4623,7 +4503,7 @@
       <c r="AB16" s="59"/>
       <c r="AC16" s="59"/>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:29">
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
       <c r="D17" s="68"/>
@@ -4645,10 +4525,10 @@
         <v>104</v>
       </c>
       <c r="R17" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S17" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T17" s="75"/>
       <c r="U17" s="77" t="s">
@@ -4669,7 +4549,7 @@
       <c r="AB17" s="59"/>
       <c r="AC17" s="59"/>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:29">
       <c r="B18" s="61" t="s">
         <v>107</v>
       </c>
@@ -4709,10 +4589,10 @@
         <v>104</v>
       </c>
       <c r="R18" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S18" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T18" s="75"/>
       <c r="U18" s="77" t="s">
@@ -4735,7 +4615,7 @@
       <c r="AB18" s="59"/>
       <c r="AC18" s="59"/>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:29">
       <c r="B19" s="61" t="s">
         <v>107</v>
       </c>
@@ -4775,10 +4655,10 @@
         <v>104</v>
       </c>
       <c r="R19" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S19" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T19" s="75"/>
       <c r="U19" s="77" t="s">
@@ -4801,7 +4681,7 @@
       <c r="AB19" s="59"/>
       <c r="AC19" s="59"/>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:29">
       <c r="B20" s="61" t="s">
         <v>107</v>
       </c>
@@ -4841,10 +4721,10 @@
         <v>104</v>
       </c>
       <c r="R20" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S20" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T20" s="75"/>
       <c r="U20" s="77" t="s">
@@ -4867,7 +4747,7 @@
       <c r="AB20" s="59"/>
       <c r="AC20" s="59"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:29">
       <c r="B21" s="61" t="s">
         <v>107</v>
       </c>
@@ -4907,10 +4787,10 @@
         <v>104</v>
       </c>
       <c r="R21" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S21" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T21" s="75"/>
       <c r="U21" s="77" t="s">
@@ -4933,7 +4813,7 @@
       <c r="AB21" s="59"/>
       <c r="AC21" s="59"/>
     </row>
-    <row r="22" spans="2:29" ht="24" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:29" ht="24">
       <c r="B22" s="61" t="s">
         <v>107</v>
       </c>
@@ -4973,10 +4853,10 @@
         <v>104</v>
       </c>
       <c r="R22" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S22" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T22" s="75"/>
       <c r="U22" s="77" t="s">
@@ -4999,7 +4879,7 @@
       <c r="AB22" s="59"/>
       <c r="AC22" s="59"/>
     </row>
-    <row r="23" spans="2:29" ht="24" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:29" ht="24">
       <c r="B23" s="61" t="s">
         <v>107</v>
       </c>
@@ -5039,10 +4919,10 @@
         <v>104</v>
       </c>
       <c r="R23" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S23" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T23" s="75"/>
       <c r="U23" s="77" t="s">
@@ -5065,7 +4945,7 @@
       <c r="AB23" s="59"/>
       <c r="AC23" s="59"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:29">
       <c r="B24" s="61" t="s">
         <v>107</v>
       </c>
@@ -5086,7 +4966,7 @@
       </c>
       <c r="H24" s="59"/>
       <c r="I24" s="59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J24" s="59" t="s">
         <v>115</v>
@@ -5105,10 +4985,10 @@
         <v>104</v>
       </c>
       <c r="R24" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S24" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T24" s="75"/>
       <c r="U24" s="77" t="s">
@@ -5131,7 +5011,7 @@
       <c r="AB24" s="59"/>
       <c r="AC24" s="59"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:29">
       <c r="B25" s="61" t="s">
         <v>107</v>
       </c>
@@ -5156,42 +5036,42 @@
       <c r="K25" s="78"/>
       <c r="L25" s="78"/>
       <c r="M25" s="78"/>
-      <c r="N25" s="180" t="s">
-        <v>123</v>
-      </c>
-      <c r="O25" s="189"/>
-      <c r="P25" s="189"/>
-      <c r="Q25" s="183" t="s">
-        <v>104</v>
-      </c>
-      <c r="R25" s="166" t="s">
-        <v>164</v>
-      </c>
-      <c r="S25" s="166" t="s">
-        <v>164</v>
-      </c>
-      <c r="T25" s="166"/>
-      <c r="U25" s="172" t="s">
+      <c r="N25" s="148" t="s">
+        <v>122</v>
+      </c>
+      <c r="O25" s="166"/>
+      <c r="P25" s="166"/>
+      <c r="Q25" s="154" t="s">
+        <v>104</v>
+      </c>
+      <c r="R25" s="151" t="s">
+        <v>161</v>
+      </c>
+      <c r="S25" s="151" t="s">
+        <v>161</v>
+      </c>
+      <c r="T25" s="151"/>
+      <c r="U25" s="163" t="s">
         <v>119</v>
       </c>
-      <c r="V25" s="151" t="s">
+      <c r="V25" s="157" t="s">
         <v>102</v>
       </c>
-      <c r="W25" s="151" t="s">
+      <c r="W25" s="157" t="s">
         <v>102</v>
       </c>
-      <c r="X25" s="186" t="s">
+      <c r="X25" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="Y25" s="157">
+      <c r="Y25" s="189">
         <v>15</v>
       </c>
-      <c r="Z25" s="157"/>
-      <c r="AA25" s="154"/>
-      <c r="AB25" s="154"/>
-      <c r="AC25" s="154"/>
-    </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="Z25" s="189"/>
+      <c r="AA25" s="186"/>
+      <c r="AB25" s="186"/>
+      <c r="AC25" s="186"/>
+    </row>
+    <row r="26" spans="2:29">
       <c r="B26" s="61" t="s">
         <v>107</v>
       </c>
@@ -5222,33 +5102,33 @@
       </c>
       <c r="L26" s="78"/>
       <c r="M26" s="78"/>
-      <c r="N26" s="181"/>
-      <c r="O26" s="190"/>
-      <c r="P26" s="190"/>
-      <c r="Q26" s="184"/>
-      <c r="R26" s="167"/>
-      <c r="S26" s="167"/>
-      <c r="T26" s="167"/>
-      <c r="U26" s="173"/>
-      <c r="V26" s="152"/>
-      <c r="W26" s="152"/>
-      <c r="X26" s="187"/>
-      <c r="Y26" s="158"/>
-      <c r="Z26" s="158"/>
-      <c r="AA26" s="155"/>
-      <c r="AB26" s="155"/>
-      <c r="AC26" s="155"/>
-    </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N26" s="149"/>
+      <c r="O26" s="167"/>
+      <c r="P26" s="167"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="152"/>
+      <c r="S26" s="152"/>
+      <c r="T26" s="152"/>
+      <c r="U26" s="164"/>
+      <c r="V26" s="158"/>
+      <c r="W26" s="158"/>
+      <c r="X26" s="161"/>
+      <c r="Y26" s="190"/>
+      <c r="Z26" s="190"/>
+      <c r="AA26" s="187"/>
+      <c r="AB26" s="187"/>
+      <c r="AC26" s="187"/>
+    </row>
+    <row r="27" spans="2:29">
       <c r="B27" s="67"/>
       <c r="C27" s="67"/>
       <c r="D27" s="68"/>
       <c r="E27" s="68"/>
       <c r="F27" s="79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G27" s="79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H27" s="78"/>
       <c r="I27" s="78"/>
@@ -5256,24 +5136,24 @@
       <c r="K27" s="78"/>
       <c r="L27" s="78"/>
       <c r="M27" s="78"/>
-      <c r="N27" s="181"/>
-      <c r="O27" s="190"/>
-      <c r="P27" s="190"/>
-      <c r="Q27" s="184"/>
-      <c r="R27" s="167"/>
-      <c r="S27" s="167"/>
-      <c r="T27" s="167"/>
-      <c r="U27" s="173"/>
-      <c r="V27" s="152"/>
-      <c r="W27" s="152"/>
-      <c r="X27" s="187"/>
-      <c r="Y27" s="158"/>
-      <c r="Z27" s="158"/>
-      <c r="AA27" s="155"/>
-      <c r="AB27" s="155"/>
-      <c r="AC27" s="155"/>
-    </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N27" s="149"/>
+      <c r="O27" s="167"/>
+      <c r="P27" s="167"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="152"/>
+      <c r="S27" s="152"/>
+      <c r="T27" s="152"/>
+      <c r="U27" s="164"/>
+      <c r="V27" s="158"/>
+      <c r="W27" s="158"/>
+      <c r="X27" s="161"/>
+      <c r="Y27" s="190"/>
+      <c r="Z27" s="190"/>
+      <c r="AA27" s="187"/>
+      <c r="AB27" s="187"/>
+      <c r="AC27" s="187"/>
+    </row>
+    <row r="28" spans="2:29">
       <c r="B28" s="61" t="s">
         <v>107</v>
       </c>
@@ -5298,33 +5178,33 @@
       <c r="K28" s="78"/>
       <c r="L28" s="78"/>
       <c r="M28" s="78"/>
-      <c r="N28" s="181"/>
-      <c r="O28" s="190"/>
-      <c r="P28" s="190"/>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="167"/>
-      <c r="S28" s="167"/>
-      <c r="T28" s="167"/>
-      <c r="U28" s="173"/>
-      <c r="V28" s="152"/>
-      <c r="W28" s="152"/>
-      <c r="X28" s="187"/>
-      <c r="Y28" s="158"/>
-      <c r="Z28" s="158"/>
-      <c r="AA28" s="155"/>
-      <c r="AB28" s="155"/>
-      <c r="AC28" s="155"/>
-    </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N28" s="149"/>
+      <c r="O28" s="167"/>
+      <c r="P28" s="167"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="152"/>
+      <c r="S28" s="152"/>
+      <c r="T28" s="152"/>
+      <c r="U28" s="164"/>
+      <c r="V28" s="158"/>
+      <c r="W28" s="158"/>
+      <c r="X28" s="161"/>
+      <c r="Y28" s="190"/>
+      <c r="Z28" s="190"/>
+      <c r="AA28" s="187"/>
+      <c r="AB28" s="187"/>
+      <c r="AC28" s="187"/>
+    </row>
+    <row r="29" spans="2:29">
       <c r="B29" s="67"/>
       <c r="C29" s="67"/>
       <c r="D29" s="68"/>
       <c r="E29" s="68"/>
       <c r="F29" s="79" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G29" s="79" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H29" s="78"/>
       <c r="I29" s="78"/>
@@ -5332,24 +5212,24 @@
       <c r="K29" s="78"/>
       <c r="L29" s="78"/>
       <c r="M29" s="78"/>
-      <c r="N29" s="181"/>
-      <c r="O29" s="190"/>
-      <c r="P29" s="190"/>
-      <c r="Q29" s="184"/>
-      <c r="R29" s="167"/>
-      <c r="S29" s="167"/>
-      <c r="T29" s="167"/>
-      <c r="U29" s="173"/>
-      <c r="V29" s="152"/>
-      <c r="W29" s="152"/>
-      <c r="X29" s="187"/>
-      <c r="Y29" s="158"/>
-      <c r="Z29" s="158"/>
-      <c r="AA29" s="155"/>
-      <c r="AB29" s="155"/>
-      <c r="AC29" s="155"/>
-    </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N29" s="149"/>
+      <c r="O29" s="167"/>
+      <c r="P29" s="167"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="152"/>
+      <c r="S29" s="152"/>
+      <c r="T29" s="152"/>
+      <c r="U29" s="164"/>
+      <c r="V29" s="158"/>
+      <c r="W29" s="158"/>
+      <c r="X29" s="161"/>
+      <c r="Y29" s="190"/>
+      <c r="Z29" s="190"/>
+      <c r="AA29" s="187"/>
+      <c r="AB29" s="187"/>
+      <c r="AC29" s="187"/>
+    </row>
+    <row r="30" spans="2:29">
       <c r="B30" s="67"/>
       <c r="C30" s="67"/>
       <c r="D30" s="68"/>
@@ -5366,33 +5246,33 @@
       <c r="K30" s="78"/>
       <c r="L30" s="78"/>
       <c r="M30" s="78"/>
-      <c r="N30" s="181"/>
-      <c r="O30" s="190"/>
-      <c r="P30" s="190"/>
-      <c r="Q30" s="184"/>
-      <c r="R30" s="167"/>
-      <c r="S30" s="167"/>
-      <c r="T30" s="167"/>
-      <c r="U30" s="173"/>
-      <c r="V30" s="152"/>
-      <c r="W30" s="152"/>
-      <c r="X30" s="187"/>
-      <c r="Y30" s="158"/>
-      <c r="Z30" s="158"/>
-      <c r="AA30" s="155"/>
-      <c r="AB30" s="155"/>
-      <c r="AC30" s="155"/>
-    </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N30" s="149"/>
+      <c r="O30" s="167"/>
+      <c r="P30" s="167"/>
+      <c r="Q30" s="155"/>
+      <c r="R30" s="152"/>
+      <c r="S30" s="152"/>
+      <c r="T30" s="152"/>
+      <c r="U30" s="164"/>
+      <c r="V30" s="158"/>
+      <c r="W30" s="158"/>
+      <c r="X30" s="161"/>
+      <c r="Y30" s="190"/>
+      <c r="Z30" s="190"/>
+      <c r="AA30" s="187"/>
+      <c r="AB30" s="187"/>
+      <c r="AC30" s="187"/>
+    </row>
+    <row r="31" spans="2:29">
       <c r="B31" s="67"/>
       <c r="C31" s="67"/>
       <c r="D31" s="68"/>
       <c r="E31" s="68"/>
       <c r="F31" s="79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G31" s="79" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H31" s="78"/>
       <c r="I31" s="78"/>
@@ -5400,24 +5280,24 @@
       <c r="K31" s="78"/>
       <c r="L31" s="78"/>
       <c r="M31" s="78"/>
-      <c r="N31" s="181"/>
-      <c r="O31" s="190"/>
-      <c r="P31" s="190"/>
-      <c r="Q31" s="184"/>
-      <c r="R31" s="167"/>
-      <c r="S31" s="167"/>
-      <c r="T31" s="167"/>
-      <c r="U31" s="173"/>
-      <c r="V31" s="152"/>
-      <c r="W31" s="152"/>
-      <c r="X31" s="187"/>
-      <c r="Y31" s="158"/>
-      <c r="Z31" s="158"/>
-      <c r="AA31" s="155"/>
-      <c r="AB31" s="155"/>
-      <c r="AC31" s="155"/>
-    </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="N31" s="149"/>
+      <c r="O31" s="167"/>
+      <c r="P31" s="167"/>
+      <c r="Q31" s="155"/>
+      <c r="R31" s="152"/>
+      <c r="S31" s="152"/>
+      <c r="T31" s="152"/>
+      <c r="U31" s="164"/>
+      <c r="V31" s="158"/>
+      <c r="W31" s="158"/>
+      <c r="X31" s="161"/>
+      <c r="Y31" s="190"/>
+      <c r="Z31" s="190"/>
+      <c r="AA31" s="187"/>
+      <c r="AB31" s="187"/>
+      <c r="AC31" s="187"/>
+    </row>
+    <row r="32" spans="2:29">
       <c r="B32" s="61" t="s">
         <v>107</v>
       </c>
@@ -5425,10 +5305,10 @@
         <v>104</v>
       </c>
       <c r="D32" s="79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E32" s="79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F32" s="79" t="s">
         <v>95</v>
@@ -5448,24 +5328,24 @@
       </c>
       <c r="L32" s="78"/>
       <c r="M32" s="78"/>
-      <c r="N32" s="182"/>
-      <c r="O32" s="191"/>
-      <c r="P32" s="191"/>
-      <c r="Q32" s="185"/>
-      <c r="R32" s="168"/>
-      <c r="S32" s="168"/>
-      <c r="T32" s="168"/>
-      <c r="U32" s="174"/>
-      <c r="V32" s="153"/>
-      <c r="W32" s="153"/>
-      <c r="X32" s="188"/>
-      <c r="Y32" s="159"/>
-      <c r="Z32" s="159"/>
-      <c r="AA32" s="156"/>
-      <c r="AB32" s="156"/>
-      <c r="AC32" s="156"/>
-    </row>
-    <row r="33" spans="2:29" ht="24" x14ac:dyDescent="0.2">
+      <c r="N32" s="150"/>
+      <c r="O32" s="168"/>
+      <c r="P32" s="168"/>
+      <c r="Q32" s="156"/>
+      <c r="R32" s="153"/>
+      <c r="S32" s="153"/>
+      <c r="T32" s="153"/>
+      <c r="U32" s="165"/>
+      <c r="V32" s="159"/>
+      <c r="W32" s="159"/>
+      <c r="X32" s="162"/>
+      <c r="Y32" s="191"/>
+      <c r="Z32" s="191"/>
+      <c r="AA32" s="188"/>
+      <c r="AB32" s="188"/>
+      <c r="AC32" s="188"/>
+    </row>
+    <row r="33" spans="2:29" ht="24">
       <c r="B33" s="69" t="s">
         <v>107</v>
       </c>
@@ -5479,10 +5359,10 @@
         <v>76</v>
       </c>
       <c r="F33" s="79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G33" s="79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H33" s="82"/>
       <c r="I33" s="78" t="s">
@@ -5505,20 +5385,20 @@
         <v>104</v>
       </c>
       <c r="R33" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S33" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T33" s="80"/>
       <c r="U33" s="94" t="s">
         <v>119</v>
       </c>
       <c r="V33" s="75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="W33" s="75" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X33" s="75" t="s">
         <v>115</v>
@@ -5531,7 +5411,7 @@
       <c r="AB33" s="80"/>
       <c r="AC33" s="80"/>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29">
       <c r="B34" s="69" t="s">
         <v>107</v>
       </c>
@@ -5539,16 +5419,16 @@
         <v>104</v>
       </c>
       <c r="D34" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="E34" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="79" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="79" t="s">
+      <c r="G34" s="79" t="s">
         <v>129</v>
-      </c>
-      <c r="F34" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="G34" s="79" t="s">
-        <v>130</v>
       </c>
       <c r="H34" s="80"/>
       <c r="I34" s="59"/>
@@ -5567,20 +5447,20 @@
         <v>104</v>
       </c>
       <c r="R34" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S34" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T34" s="80"/>
       <c r="U34" s="94" t="s">
         <v>119</v>
       </c>
       <c r="V34" s="75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="W34" s="75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X34" s="110" t="s">
         <v>117</v>
@@ -5591,7 +5471,7 @@
       <c r="AB34" s="80"/>
       <c r="AC34" s="80"/>
     </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:29">
       <c r="B35" s="69" t="s">
         <v>107</v>
       </c>
@@ -5605,10 +5485,10 @@
         <v>91</v>
       </c>
       <c r="F35" s="79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G35" s="79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H35" s="80"/>
       <c r="I35" s="59" t="s">
@@ -5629,20 +5509,20 @@
         <v>104</v>
       </c>
       <c r="R35" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S35" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T35" s="80"/>
       <c r="U35" s="94" t="s">
         <v>119</v>
       </c>
       <c r="V35" s="75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="W35" s="75" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="X35" s="110" t="s">
         <v>117</v>
@@ -5653,7 +5533,7 @@
       <c r="AB35" s="80"/>
       <c r="AC35" s="80"/>
     </row>
-    <row r="36" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:29">
       <c r="B36" s="69" t="s">
         <v>107</v>
       </c>
@@ -5667,17 +5547,17 @@
         <v>91</v>
       </c>
       <c r="F36" s="79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G36" s="79" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H36" s="78"/>
       <c r="I36" s="78" t="s">
         <v>119</v>
       </c>
       <c r="J36" s="78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K36" s="78">
         <v>1</v>
@@ -5693,23 +5573,23 @@
         <v>104</v>
       </c>
       <c r="R36" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S36" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T36" s="80"/>
       <c r="U36" s="94" t="s">
         <v>119</v>
       </c>
       <c r="V36" s="75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W36" s="75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X36" s="75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y36" s="78">
         <v>1</v>
@@ -5719,7 +5599,7 @@
       <c r="AB36" s="80"/>
       <c r="AC36" s="80"/>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29">
       <c r="B37" s="69" t="s">
         <v>107</v>
       </c>
@@ -5733,10 +5613,10 @@
         <v>76</v>
       </c>
       <c r="F37" s="79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G37" s="79" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H37" s="78"/>
       <c r="I37" s="78" t="s">
@@ -5759,20 +5639,20 @@
         <v>104</v>
       </c>
       <c r="R37" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S37" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T37" s="80"/>
       <c r="U37" s="94" t="s">
         <v>119</v>
       </c>
       <c r="V37" s="75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="W37" s="75" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="X37" s="75" t="s">
         <v>115</v>
@@ -5785,7 +5665,7 @@
       <c r="AB37" s="80"/>
       <c r="AC37" s="80"/>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29">
       <c r="B38" s="69" t="s">
         <v>107</v>
       </c>
@@ -5793,10 +5673,10 @@
         <v>104</v>
       </c>
       <c r="D38" s="79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E38" s="79" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F38" s="79" t="s">
         <v>95</v>
@@ -5825,16 +5705,16 @@
         <v>104</v>
       </c>
       <c r="R38" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S38" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T38" s="73" t="s">
         <v>116</v>
       </c>
       <c r="U38" s="77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V38" s="110" t="s">
         <v>95</v>
@@ -5853,7 +5733,7 @@
       <c r="AB38" s="59"/>
       <c r="AC38" s="59"/>
     </row>
-    <row r="39" spans="2:29" ht="24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" ht="24">
       <c r="B39" s="69" t="s">
         <v>107</v>
       </c>
@@ -5867,10 +5747,10 @@
         <v>91</v>
       </c>
       <c r="F39" s="61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G39" s="61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H39" s="59"/>
       <c r="I39" s="59" t="s">
@@ -5893,20 +5773,20 @@
         <v>104</v>
       </c>
       <c r="R39" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S39" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T39" s="75"/>
       <c r="U39" s="77" t="s">
         <v>119</v>
       </c>
       <c r="V39" s="110" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W39" s="110" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X39" s="110" t="s">
         <v>115</v>
@@ -5919,7 +5799,7 @@
       <c r="AB39" s="59"/>
       <c r="AC39" s="59"/>
     </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:29">
       <c r="B40" s="69" t="s">
         <v>107</v>
       </c>
@@ -5933,10 +5813,10 @@
         <v>91</v>
       </c>
       <c r="F40" s="79" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G40" s="79" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H40" s="59"/>
       <c r="I40" s="59"/>
@@ -5955,20 +5835,20 @@
         <v>104</v>
       </c>
       <c r="R40" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S40" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T40" s="80"/>
       <c r="U40" s="94" t="s">
         <v>119</v>
       </c>
       <c r="V40" s="75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W40" s="75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="X40" s="110" t="s">
         <v>117</v>
@@ -5979,7 +5859,7 @@
       <c r="AB40" s="80"/>
       <c r="AC40" s="80"/>
     </row>
-    <row r="41" spans="2:29" ht="24" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:29" ht="24">
       <c r="B41" s="69" t="s">
         <v>107</v>
       </c>
@@ -5993,10 +5873,10 @@
         <v>91</v>
       </c>
       <c r="F41" s="79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G41" s="79" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H41" s="59"/>
       <c r="I41" s="59"/>
@@ -6015,20 +5895,20 @@
         <v>104</v>
       </c>
       <c r="R41" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S41" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T41" s="80"/>
       <c r="U41" s="94" t="s">
         <v>119</v>
       </c>
       <c r="V41" s="75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W41" s="75" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X41" s="110" t="s">
         <v>117</v>
@@ -6039,7 +5919,7 @@
       <c r="AB41" s="80"/>
       <c r="AC41" s="80"/>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29">
       <c r="B42" s="86" t="s">
         <v>107</v>
       </c>
@@ -6047,10 +5927,10 @@
         <v>104</v>
       </c>
       <c r="D42" s="87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E42" s="87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F42" s="87" t="s">
         <v>77</v>
@@ -6062,7 +5942,7 @@
         <v>119</v>
       </c>
       <c r="I42" s="88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J42" s="88" t="s">
         <v>115</v>
@@ -6081,10 +5961,10 @@
         <v>104</v>
       </c>
       <c r="R42" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S42" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T42" s="80"/>
       <c r="U42" s="94" t="s">
@@ -6107,7 +5987,7 @@
       <c r="AB42" s="80"/>
       <c r="AC42" s="80"/>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29">
       <c r="B43" s="89"/>
       <c r="C43" s="89"/>
       <c r="D43" s="90"/>
@@ -6121,7 +6001,7 @@
       <c r="L43" s="92"/>
       <c r="M43" s="89"/>
       <c r="N43" s="79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O43" s="83"/>
       <c r="P43" s="83"/>
@@ -6129,20 +6009,20 @@
         <v>104</v>
       </c>
       <c r="R43" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S43" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T43" s="80"/>
       <c r="U43" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V43" s="75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="W43" s="75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X43" s="111" t="s">
         <v>118</v>
@@ -6155,7 +6035,7 @@
       <c r="AB43" s="80"/>
       <c r="AC43" s="80"/>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29">
       <c r="B44" s="89"/>
       <c r="C44" s="89"/>
       <c r="D44" s="90"/>
@@ -6169,7 +6049,7 @@
       <c r="L44" s="92"/>
       <c r="M44" s="89"/>
       <c r="N44" s="79" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O44" s="83"/>
       <c r="P44" s="83"/>
@@ -6177,20 +6057,20 @@
         <v>104</v>
       </c>
       <c r="R44" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S44" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T44" s="80"/>
       <c r="U44" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V44" s="75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W44" s="75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X44" s="111" t="s">
         <v>118</v>
@@ -6203,7 +6083,7 @@
       <c r="AB44" s="80"/>
       <c r="AC44" s="80"/>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29">
       <c r="B45" s="89"/>
       <c r="C45" s="89"/>
       <c r="D45" s="90"/>
@@ -6223,20 +6103,20 @@
         <v>104</v>
       </c>
       <c r="R45" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S45" s="76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T45" s="80"/>
       <c r="U45" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="V45" s="75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="W45" s="75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="X45" s="111" t="s">
         <v>117</v>
@@ -6247,81 +6127,80 @@
       <c r="AB45" s="80"/>
       <c r="AC45" s="80"/>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29">
       <c r="F46" s="56"/>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29">
       <c r="F47" s="56"/>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29">
       <c r="F48" s="56"/>
     </row>
-    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:6">
       <c r="F49" s="56"/>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="6:6">
       <c r="F50" s="56"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:6">
       <c r="F51" s="56"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:6">
       <c r="F52" s="56"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:6">
       <c r="F53" s="56"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:6">
       <c r="F54" s="56"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:6">
       <c r="F55" s="56"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:6">
       <c r="F56" s="56"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="6:6">
       <c r="F57" s="56"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="6:6">
       <c r="F58" s="56"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="6:6">
       <c r="F59" s="56"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:6">
       <c r="F60" s="56"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="6:6">
       <c r="F61" s="56"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="6:6">
       <c r="F62" s="56"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="6:6">
       <c r="F63" s="56"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="6:6">
       <c r="F64" s="56"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="6:6">
       <c r="F65" s="56"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="6:6">
       <c r="F66" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="N25:N32"/>
-    <mergeCell ref="R25:R32"/>
-    <mergeCell ref="Q25:Q32"/>
-    <mergeCell ref="V25:V32"/>
-    <mergeCell ref="X25:X32"/>
-    <mergeCell ref="T25:T32"/>
-    <mergeCell ref="U25:U32"/>
-    <mergeCell ref="O25:O32"/>
-    <mergeCell ref="P25:P32"/>
-    <mergeCell ref="S25:S32"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="W25:W32"/>
+    <mergeCell ref="AC9:AC11"/>
+    <mergeCell ref="AB25:AB32"/>
+    <mergeCell ref="AC25:AC32"/>
+    <mergeCell ref="Y25:Y32"/>
+    <mergeCell ref="Z25:Z32"/>
+    <mergeCell ref="AA25:AA32"/>
     <mergeCell ref="Q2:AB2"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
@@ -6338,15 +6217,16 @@
     <mergeCell ref="AB9:AB11"/>
     <mergeCell ref="S9:S11"/>
     <mergeCell ref="W9:W11"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="W25:W32"/>
-    <mergeCell ref="AC9:AC11"/>
-    <mergeCell ref="AB25:AB32"/>
-    <mergeCell ref="AC25:AC32"/>
-    <mergeCell ref="Y25:Y32"/>
-    <mergeCell ref="Z25:Z32"/>
-    <mergeCell ref="AA25:AA32"/>
+    <mergeCell ref="N25:N32"/>
+    <mergeCell ref="R25:R32"/>
+    <mergeCell ref="Q25:Q32"/>
+    <mergeCell ref="V25:V32"/>
+    <mergeCell ref="X25:X32"/>
+    <mergeCell ref="T25:T32"/>
+    <mergeCell ref="U25:U32"/>
+    <mergeCell ref="O25:O32"/>
+    <mergeCell ref="P25:P32"/>
+    <mergeCell ref="S25:S32"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -6356,58 +6236,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="20481" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="20481" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Visio.Drawing.11" shapeId="20481" r:id="rId3"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AF35"/>
+  <dimension ref="B1:AF36"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
@@ -6416,7 +6269,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -6451,7 +6304,7 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:29">
       <c r="Q1" s="52"/>
       <c r="R1" s="52"/>
       <c r="S1" s="52"/>
@@ -6459,45 +6312,45 @@
       <c r="U1" s="52"/>
       <c r="V1" s="52"/>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="162" t="s">
+    <row r="2" spans="2:29">
+      <c r="B2" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164" t="s">
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="160" t="s">
+      <c r="O2" s="173"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="161"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="161"/>
-      <c r="AA2" s="161"/>
-      <c r="AB2" s="161"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="170"/>
+      <c r="X2" s="170"/>
+      <c r="Y2" s="170"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="170"/>
+      <c r="AB2" s="170"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:29" ht="23.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -6581,7 +6434,7 @@
       </c>
       <c r="AC3" s="38"/>
     </row>
-    <row r="4" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:29" s="3" customFormat="1">
       <c r="B4" s="68"/>
       <c r="C4" s="68"/>
       <c r="D4" s="90"/>
@@ -6595,7 +6448,7 @@
       <c r="L4" s="89"/>
       <c r="M4" s="89"/>
       <c r="N4" s="57" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O4" s="103"/>
       <c r="P4" s="103"/>
@@ -6605,10 +6458,10 @@
       <c r="T4" s="89"/>
       <c r="U4" s="104"/>
       <c r="V4" s="79" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="W4" s="79" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X4" s="72" t="s">
         <v>117</v>
@@ -6619,7 +6472,7 @@
       <c r="AB4" s="80"/>
       <c r="AC4" s="80"/>
     </row>
-    <row r="5" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:29" s="3" customFormat="1">
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
       <c r="D5" s="90"/>
@@ -6633,7 +6486,7 @@
       <c r="L5" s="89"/>
       <c r="M5" s="89"/>
       <c r="N5" s="57" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O5" s="103"/>
       <c r="P5" s="103"/>
@@ -6643,10 +6496,10 @@
       <c r="T5" s="89"/>
       <c r="U5" s="104"/>
       <c r="V5" s="79" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="W5" s="79" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="X5" s="72" t="s">
         <v>117</v>
@@ -6657,7 +6510,7 @@
       <c r="AB5" s="80"/>
       <c r="AC5" s="80"/>
     </row>
-    <row r="6" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:29" s="3" customFormat="1">
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
       <c r="D6" s="90"/>
@@ -6671,7 +6524,7 @@
       <c r="L6" s="89"/>
       <c r="M6" s="89"/>
       <c r="N6" s="57" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O6" s="103"/>
       <c r="P6" s="103"/>
@@ -6681,10 +6534,10 @@
       <c r="T6" s="89"/>
       <c r="U6" s="104"/>
       <c r="V6" s="79" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="W6" s="79" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="X6" s="72" t="s">
         <v>117</v>
@@ -6695,7 +6548,7 @@
       <c r="AB6" s="80"/>
       <c r="AC6" s="80"/>
     </row>
-    <row r="7" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:29" s="3" customFormat="1">
       <c r="B7" s="68"/>
       <c r="C7" s="68"/>
       <c r="D7" s="90"/>
@@ -6709,7 +6562,7 @@
       <c r="L7" s="89"/>
       <c r="M7" s="89"/>
       <c r="N7" s="57" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O7" s="103"/>
       <c r="P7" s="103"/>
@@ -6719,10 +6572,10 @@
       <c r="T7" s="89"/>
       <c r="U7" s="104"/>
       <c r="V7" s="79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="W7" s="79" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="X7" s="72" t="s">
         <v>117</v>
@@ -6733,7 +6586,7 @@
       <c r="AB7" s="80"/>
       <c r="AC7" s="80"/>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:29">
       <c r="B8" s="79" t="s">
         <v>107</v>
       </c>
@@ -6741,10 +6594,10 @@
         <v>104</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F8" s="79" t="s">
         <v>94</v>
@@ -6773,18 +6626,18 @@
         <v>104</v>
       </c>
       <c r="R8" s="77" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S8" s="77" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T8" s="83"/>
       <c r="U8" s="83"/>
       <c r="V8" s="79" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W8" s="79" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="X8" s="72" t="s">
         <v>115</v>
@@ -6799,7 +6652,7 @@
       <c r="AB8" s="80"/>
       <c r="AC8" s="80"/>
     </row>
-    <row r="9" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:29" ht="12.75" customHeight="1">
       <c r="B9" s="79" t="s">
         <v>107</v>
       </c>
@@ -6807,63 +6660,63 @@
         <v>104</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F9" s="79" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="G9" s="79" t="s">
-        <v>142</v>
-      </c>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
+        <v>90</v>
+      </c>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
       <c r="J9" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="K9" s="74">
+      <c r="K9" s="108">
+        <v>100</v>
+      </c>
+      <c r="L9" s="108"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="192" t="s">
+        <v>163</v>
+      </c>
+      <c r="O9" s="202"/>
+      <c r="P9" s="202"/>
+      <c r="Q9" s="189" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="189" t="s">
+        <v>161</v>
+      </c>
+      <c r="S9" s="189" t="s">
+        <v>161</v>
+      </c>
+      <c r="T9" s="202"/>
+      <c r="U9" s="189" t="s">
+        <v>137</v>
+      </c>
+      <c r="V9" s="194" t="s">
+        <v>141</v>
+      </c>
+      <c r="W9" s="194" t="s">
+        <v>141</v>
+      </c>
+      <c r="X9" s="194" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" s="181">
         <v>2</v>
       </c>
-      <c r="L9" s="80"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="192" t="s">
-        <v>148</v>
-      </c>
-      <c r="O9" s="192"/>
-      <c r="P9" s="192"/>
-      <c r="Q9" s="194" t="s">
-        <v>104</v>
-      </c>
-      <c r="R9" s="194" t="s">
-        <v>164</v>
-      </c>
-      <c r="S9" s="194" t="s">
-        <v>164</v>
-      </c>
-      <c r="T9" s="192"/>
-      <c r="U9" s="194" t="s">
-        <v>138</v>
-      </c>
-      <c r="V9" s="194" t="s">
-        <v>142</v>
-      </c>
-      <c r="W9" s="194" t="s">
-        <v>142</v>
-      </c>
-      <c r="X9" s="192" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y9" s="192">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="192"/>
-      <c r="AA9" s="192"/>
-      <c r="AB9" s="192"/>
-      <c r="AC9" s="192"/>
-    </row>
-    <row r="10" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z9" s="181"/>
+      <c r="AA9" s="197"/>
+      <c r="AB9" s="197"/>
+      <c r="AC9" s="197"/>
+    </row>
+    <row r="10" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="B10" s="79" t="s">
         <v>107</v>
       </c>
@@ -6871,59 +6724,49 @@
         <v>104</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E10" s="79" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F10" s="79" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G10" s="79" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" s="96"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="K10" s="78">
+        <v>141</v>
+      </c>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="74">
         <v>2</v>
       </c>
       <c r="L10" s="80"/>
-      <c r="M10" s="96"/>
+      <c r="M10" s="97"/>
       <c r="N10" s="193"/>
-      <c r="O10" s="193"/>
-      <c r="P10" s="193"/>
-      <c r="Q10" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R10" s="195" t="s">
-        <v>120</v>
-      </c>
-      <c r="S10" s="195"/>
-      <c r="T10" s="193"/>
-      <c r="U10" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="V10" s="195" t="s">
-        <v>131</v>
-      </c>
-      <c r="W10" s="195" t="s">
-        <v>131</v>
-      </c>
-      <c r="X10" s="193" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y10" s="193">
+      <c r="O10" s="203"/>
+      <c r="P10" s="203"/>
+      <c r="Q10" s="190"/>
+      <c r="R10" s="190"/>
+      <c r="S10" s="190"/>
+      <c r="T10" s="203"/>
+      <c r="U10" s="190"/>
+      <c r="V10" s="195"/>
+      <c r="W10" s="195"/>
+      <c r="X10" s="195" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" s="182">
         <v>2</v>
       </c>
-      <c r="Z10" s="193"/>
-      <c r="AA10" s="193"/>
-      <c r="AB10" s="193"/>
-      <c r="AC10" s="193"/>
-    </row>
-    <row r="11" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z10" s="182"/>
+      <c r="AA10" s="198"/>
+      <c r="AB10" s="198"/>
+      <c r="AC10" s="198"/>
+    </row>
+    <row r="11" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="B11" s="79" t="s">
         <v>107</v>
       </c>
@@ -6931,10 +6774,10 @@
         <v>104</v>
       </c>
       <c r="D11" s="79" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E11" s="79" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F11" s="79" t="s">
         <v>130</v>
@@ -6942,44 +6785,38 @@
       <c r="G11" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="97"/>
+      <c r="H11" s="96"/>
       <c r="I11" s="78"/>
-      <c r="J11" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="K11" s="59"/>
+      <c r="J11" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="78">
+        <v>2</v>
+      </c>
       <c r="L11" s="80"/>
-      <c r="M11" s="97"/>
+      <c r="M11" s="96"/>
       <c r="N11" s="193"/>
-      <c r="O11" s="193"/>
-      <c r="P11" s="193"/>
-      <c r="Q11" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R11" s="195" t="s">
-        <v>120</v>
-      </c>
-      <c r="S11" s="195"/>
-      <c r="T11" s="193"/>
-      <c r="U11" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="V11" s="195" t="s">
-        <v>130</v>
-      </c>
-      <c r="W11" s="195" t="s">
-        <v>130</v>
-      </c>
-      <c r="X11" s="193" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y11" s="193"/>
-      <c r="Z11" s="193"/>
-      <c r="AA11" s="193"/>
-      <c r="AB11" s="193"/>
-      <c r="AC11" s="193"/>
-    </row>
-    <row r="12" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="203"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="190"/>
+      <c r="R11" s="190"/>
+      <c r="S11" s="190"/>
+      <c r="T11" s="203"/>
+      <c r="U11" s="190"/>
+      <c r="V11" s="195"/>
+      <c r="W11" s="195"/>
+      <c r="X11" s="195" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y11" s="182">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="182"/>
+      <c r="AA11" s="198"/>
+      <c r="AB11" s="198"/>
+      <c r="AC11" s="198"/>
+    </row>
+    <row r="12" spans="2:29" s="3" customFormat="1">
       <c r="B12" s="79" t="s">
         <v>107</v>
       </c>
@@ -6987,16 +6824,16 @@
         <v>104</v>
       </c>
       <c r="D12" s="79" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E12" s="79" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F12" s="79" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G12" s="79" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H12" s="97"/>
       <c r="I12" s="78"/>
@@ -7007,35 +6844,25 @@
       <c r="L12" s="80"/>
       <c r="M12" s="97"/>
       <c r="N12" s="193"/>
-      <c r="O12" s="193"/>
-      <c r="P12" s="193"/>
-      <c r="Q12" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R12" s="195" t="s">
-        <v>120</v>
-      </c>
-      <c r="S12" s="195"/>
-      <c r="T12" s="193"/>
-      <c r="U12" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="V12" s="195" t="s">
-        <v>125</v>
-      </c>
-      <c r="W12" s="195" t="s">
-        <v>125</v>
-      </c>
-      <c r="X12" s="193" t="s">
+      <c r="O12" s="203"/>
+      <c r="P12" s="203"/>
+      <c r="Q12" s="190"/>
+      <c r="R12" s="190"/>
+      <c r="S12" s="190"/>
+      <c r="T12" s="203"/>
+      <c r="U12" s="190"/>
+      <c r="V12" s="195"/>
+      <c r="W12" s="195"/>
+      <c r="X12" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="Y12" s="193"/>
-      <c r="Z12" s="193"/>
-      <c r="AA12" s="193"/>
-      <c r="AB12" s="193"/>
-      <c r="AC12" s="193"/>
-    </row>
-    <row r="13" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Y12" s="182"/>
+      <c r="Z12" s="182"/>
+      <c r="AA12" s="198"/>
+      <c r="AB12" s="198"/>
+      <c r="AC12" s="198"/>
+    </row>
+    <row r="13" spans="2:29" s="3" customFormat="1">
       <c r="B13" s="79" t="s">
         <v>107</v>
       </c>
@@ -7043,59 +6870,45 @@
         <v>104</v>
       </c>
       <c r="D13" s="79" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E13" s="79" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F13" s="79" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G13" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="H13" s="78"/>
+        <v>124</v>
+      </c>
+      <c r="H13" s="97"/>
       <c r="I13" s="78"/>
-      <c r="J13" s="78" t="s">
-        <v>137</v>
-      </c>
-      <c r="K13" s="78">
-        <v>1</v>
-      </c>
+      <c r="J13" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" s="59"/>
       <c r="L13" s="80"/>
       <c r="M13" s="97"/>
       <c r="N13" s="193"/>
-      <c r="O13" s="193"/>
-      <c r="P13" s="193"/>
-      <c r="Q13" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R13" s="195" t="s">
-        <v>120</v>
-      </c>
-      <c r="S13" s="195"/>
-      <c r="T13" s="193"/>
-      <c r="U13" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="V13" s="195" t="s">
-        <v>127</v>
-      </c>
-      <c r="W13" s="195" t="s">
-        <v>127</v>
-      </c>
-      <c r="X13" s="193" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y13" s="193">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="193"/>
-      <c r="AA13" s="193"/>
-      <c r="AB13" s="193"/>
-      <c r="AC13" s="193"/>
-    </row>
-    <row r="14" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="203"/>
+      <c r="P13" s="203"/>
+      <c r="Q13" s="190"/>
+      <c r="R13" s="190"/>
+      <c r="S13" s="190"/>
+      <c r="T13" s="203"/>
+      <c r="U13" s="190"/>
+      <c r="V13" s="195"/>
+      <c r="W13" s="195"/>
+      <c r="X13" s="195" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y13" s="182"/>
+      <c r="Z13" s="182"/>
+      <c r="AA13" s="198"/>
+      <c r="AB13" s="198"/>
+      <c r="AC13" s="198"/>
+    </row>
+    <row r="14" spans="2:29" s="3" customFormat="1">
       <c r="B14" s="79" t="s">
         <v>107</v>
       </c>
@@ -7103,185 +6916,151 @@
         <v>104</v>
       </c>
       <c r="D14" s="79" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E14" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="61" t="s">
-        <v>94</v>
+        <v>162</v>
+      </c>
+      <c r="F14" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" s="79" t="s">
+        <v>126</v>
       </c>
       <c r="H14" s="78"/>
       <c r="I14" s="78"/>
-      <c r="J14" s="72" t="s">
+      <c r="J14" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" s="78">
+        <v>1</v>
+      </c>
+      <c r="L14" s="80"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="193"/>
+      <c r="O14" s="203"/>
+      <c r="P14" s="203"/>
+      <c r="Q14" s="190"/>
+      <c r="R14" s="190"/>
+      <c r="S14" s="190"/>
+      <c r="T14" s="203"/>
+      <c r="U14" s="190"/>
+      <c r="V14" s="195"/>
+      <c r="W14" s="195"/>
+      <c r="X14" s="195" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y14" s="182">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="182"/>
+      <c r="AA14" s="198"/>
+      <c r="AB14" s="198"/>
+      <c r="AC14" s="198"/>
+    </row>
+    <row r="15" spans="2:29" s="3" customFormat="1">
+      <c r="B15" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="F15" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="74">
+      <c r="K15" s="74">
         <v>8</v>
       </c>
-      <c r="L14" s="74">
+      <c r="L15" s="74">
         <v>2</v>
       </c>
-      <c r="M14" s="78"/>
-      <c r="N14" s="193"/>
-      <c r="O14" s="193"/>
-      <c r="P14" s="193"/>
-      <c r="Q14" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R14" s="195" t="s">
-        <v>120</v>
-      </c>
-      <c r="S14" s="195"/>
-      <c r="T14" s="193"/>
-      <c r="U14" s="195" t="s">
-        <v>119</v>
-      </c>
-      <c r="V14" s="195" t="s">
-        <v>94</v>
-      </c>
-      <c r="W14" s="195" t="s">
-        <v>94</v>
-      </c>
-      <c r="X14" s="193" t="s">
+      <c r="M15" s="78"/>
+      <c r="N15" s="193"/>
+      <c r="O15" s="203"/>
+      <c r="P15" s="203"/>
+      <c r="Q15" s="190"/>
+      <c r="R15" s="190"/>
+      <c r="S15" s="190"/>
+      <c r="T15" s="203"/>
+      <c r="U15" s="190"/>
+      <c r="V15" s="195"/>
+      <c r="W15" s="195"/>
+      <c r="X15" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="Y14" s="193">
+      <c r="Y15" s="182">
         <v>8</v>
       </c>
-      <c r="Z14" s="193">
-        <v>2</v>
-      </c>
-      <c r="AA14" s="193"/>
-      <c r="AB14" s="193"/>
-      <c r="AC14" s="193"/>
-    </row>
-    <row r="15" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="87" t="s">
+      <c r="Z15" s="182"/>
+      <c r="AA15" s="198"/>
+      <c r="AB15" s="198"/>
+      <c r="AC15" s="198"/>
+    </row>
+    <row r="16" spans="2:29" s="3" customFormat="1">
+      <c r="B16" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="E15" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="F15" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="G15" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98" t="s">
+      <c r="C16" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="F16" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" s="98"/>
+      <c r="I16" s="98"/>
+      <c r="J16" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="K15" s="98">
+      <c r="K16" s="98">
         <v>5</v>
       </c>
-      <c r="L15" s="82"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="193"/>
-      <c r="O15" s="193"/>
-      <c r="P15" s="193"/>
-      <c r="Q15" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R15" s="195" t="s">
-        <v>120</v>
-      </c>
-      <c r="S15" s="195"/>
-      <c r="T15" s="193"/>
-      <c r="U15" s="196" t="s">
-        <v>119</v>
-      </c>
-      <c r="V15" s="195" t="s">
-        <v>132</v>
-      </c>
-      <c r="W15" s="195" t="s">
-        <v>132</v>
-      </c>
-      <c r="X15" s="193" t="s">
+      <c r="L16" s="82"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="200"/>
+      <c r="O16" s="204"/>
+      <c r="P16" s="204"/>
+      <c r="Q16" s="191"/>
+      <c r="R16" s="191"/>
+      <c r="S16" s="191"/>
+      <c r="T16" s="204"/>
+      <c r="U16" s="191"/>
+      <c r="V16" s="196"/>
+      <c r="W16" s="196"/>
+      <c r="X16" s="196" t="s">
         <v>115</v>
       </c>
-      <c r="Y15" s="193">
+      <c r="Y16" s="183">
         <v>5</v>
       </c>
-      <c r="Z15" s="193"/>
-      <c r="AA15" s="193"/>
-      <c r="AB15" s="193"/>
-      <c r="AC15" s="193"/>
-    </row>
-    <row r="16" spans="2:29" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="B16" s="100" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="100" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="75" t="s">
-        <v>165</v>
-      </c>
-      <c r="F16" s="100" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="100" t="s">
-        <v>89</v>
-      </c>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="K16" s="78">
-        <v>1</v>
-      </c>
-      <c r="L16" s="81"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="O16" s="83"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="R16" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="S16" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="T16" s="83"/>
-      <c r="U16" s="83"/>
-      <c r="V16" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="W16" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="X16" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y16" s="79">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="80"/>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="80"/>
-      <c r="AC16" s="80"/>
-    </row>
-    <row r="17" spans="2:29" ht="96" x14ac:dyDescent="0.2">
+      <c r="Z16" s="183"/>
+      <c r="AA16" s="199"/>
+      <c r="AB16" s="199"/>
+      <c r="AC16" s="199"/>
+    </row>
+    <row r="17" spans="2:29" s="3" customFormat="1" ht="60">
       <c r="B17" s="100" t="s">
         <v>107</v>
       </c>
@@ -7289,20 +7068,20 @@
         <v>104</v>
       </c>
       <c r="D17" s="75" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E17" s="75" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F17" s="100" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="G17" s="100" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="H17" s="80"/>
       <c r="I17" s="80"/>
-      <c r="J17" s="109" t="s">
+      <c r="J17" s="78" t="s">
         <v>118</v>
       </c>
       <c r="K17" s="78">
@@ -7311,7 +7090,7 @@
       <c r="L17" s="81"/>
       <c r="M17" s="80"/>
       <c r="N17" s="57" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="O17" s="83"/>
       <c r="P17" s="83"/>
@@ -7319,150 +7098,212 @@
         <v>104</v>
       </c>
       <c r="R17" s="77" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S17" s="77" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T17" s="83"/>
       <c r="U17" s="83"/>
       <c r="V17" s="75" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="W17" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="X17" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y17" s="75">
-        <v>3</v>
+        <v>153</v>
+      </c>
+      <c r="X17" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y17" s="79">
+        <v>1</v>
       </c>
       <c r="Z17" s="80"/>
       <c r="AA17" s="80"/>
       <c r="AB17" s="80"/>
       <c r="AC17" s="80"/>
     </row>
-    <row r="18" spans="2:29" ht="348" x14ac:dyDescent="0.2">
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="67"/>
-      <c r="L18" s="67"/>
-      <c r="M18" s="67"/>
-      <c r="N18" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="O18" s="57"/>
-      <c r="P18" s="58"/>
+    <row r="18" spans="2:29" ht="96">
+      <c r="B18" s="100" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="F18" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" s="100" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="109" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="78">
+        <v>1</v>
+      </c>
+      <c r="L18" s="81"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
       <c r="Q18" s="107" t="s">
         <v>104</v>
       </c>
       <c r="R18" s="77" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S18" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="T18" s="73"/>
-      <c r="U18" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="W18" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="X18" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y18" s="75">
+        <v>3</v>
+      </c>
+      <c r="Z18" s="80"/>
+      <c r="AA18" s="80"/>
+      <c r="AB18" s="80"/>
+      <c r="AC18" s="80"/>
+    </row>
+    <row r="19" spans="2:29" ht="324">
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="O19" s="57"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="R19" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="S19" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="T19" s="73"/>
+      <c r="U19" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V18" s="71" t="s">
+      <c r="V19" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="W18" s="107" t="s">
+      <c r="W19" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="X18" s="72" t="s">
+      <c r="X19" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="Y18" s="74">
+      <c r="Y19" s="74">
         <v>30</v>
       </c>
-      <c r="Z18" s="74"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-    </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="F19" s="56"/>
-    </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="Z19" s="74"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+    </row>
+    <row r="20" spans="2:29">
       <c r="F20" s="56"/>
     </row>
-    <row r="21" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:29">
       <c r="F21" s="56"/>
     </row>
-    <row r="22" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:29">
       <c r="F22" s="56"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:29">
       <c r="F23" s="56"/>
     </row>
-    <row r="24" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:29">
       <c r="F24" s="56"/>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:29">
       <c r="F25" s="56"/>
     </row>
-    <row r="26" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:29">
       <c r="F26" s="56"/>
     </row>
-    <row r="27" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:29">
       <c r="F27" s="56"/>
     </row>
-    <row r="28" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:29">
       <c r="F28" s="56"/>
     </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:29">
       <c r="F29" s="56"/>
     </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:29">
       <c r="F30" s="56"/>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:29">
       <c r="F31" s="56"/>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:29">
       <c r="F32" s="56"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:6">
       <c r="F33" s="56"/>
     </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:6">
       <c r="F34" s="56"/>
     </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:6">
       <c r="F35" s="56"/>
+    </row>
+    <row r="36" spans="6:6">
+      <c r="F36" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T9:T16"/>
+    <mergeCell ref="Q9:Q16"/>
+    <mergeCell ref="R9:R16"/>
+    <mergeCell ref="S9:S16"/>
+    <mergeCell ref="Z9:Z16"/>
+    <mergeCell ref="AA9:AA16"/>
+    <mergeCell ref="AB9:AB16"/>
+    <mergeCell ref="AC9:AC16"/>
+    <mergeCell ref="Y9:Y16"/>
+    <mergeCell ref="X9:X16"/>
+    <mergeCell ref="W9:W16"/>
+    <mergeCell ref="V9:V16"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="N9:N15"/>
-    <mergeCell ref="O9:O15"/>
-    <mergeCell ref="P9:P15"/>
-    <mergeCell ref="Q9:Q15"/>
-    <mergeCell ref="R9:R15"/>
-    <mergeCell ref="S9:S15"/>
-    <mergeCell ref="T9:T15"/>
-    <mergeCell ref="AB9:AB15"/>
-    <mergeCell ref="AC9:AC15"/>
-    <mergeCell ref="U9:U15"/>
-    <mergeCell ref="V9:V15"/>
-    <mergeCell ref="X9:X15"/>
-    <mergeCell ref="Y9:Y15"/>
-    <mergeCell ref="Z9:Z15"/>
-    <mergeCell ref="AA9:AA15"/>
-    <mergeCell ref="W9:W15"/>
+    <mergeCell ref="N9:N16"/>
+    <mergeCell ref="O9:O16"/>
+    <mergeCell ref="P9:P16"/>
+    <mergeCell ref="U9:U16"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -7472,11 +7313,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AF32"/>
+  <dimension ref="B1:AF33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
@@ -7485,7 +7326,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -7520,7 +7361,7 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:29">
       <c r="Q1" s="52"/>
       <c r="R1" s="52"/>
       <c r="S1" s="52"/>
@@ -7528,45 +7369,45 @@
       <c r="U1" s="52"/>
       <c r="V1" s="52"/>
     </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B2" s="162" t="s">
+    <row r="2" spans="2:29">
+      <c r="B2" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="163"/>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="163"/>
-      <c r="H2" s="163"/>
-      <c r="I2" s="163"/>
-      <c r="J2" s="163"/>
-      <c r="K2" s="163"/>
-      <c r="L2" s="163"/>
-      <c r="M2" s="163"/>
-      <c r="N2" s="164" t="s">
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="160" t="s">
+      <c r="O2" s="173"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="161"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="161"/>
-      <c r="U2" s="161"/>
-      <c r="V2" s="161"/>
-      <c r="W2" s="161"/>
-      <c r="X2" s="161"/>
-      <c r="Y2" s="161"/>
-      <c r="Z2" s="161"/>
-      <c r="AA2" s="161"/>
-      <c r="AB2" s="161"/>
+      <c r="R2" s="170"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="170"/>
+      <c r="U2" s="170"/>
+      <c r="V2" s="170"/>
+      <c r="W2" s="170"/>
+      <c r="X2" s="170"/>
+      <c r="Y2" s="170"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="170"/>
+      <c r="AB2" s="170"/>
       <c r="AC2" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:29" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:29" ht="23.25">
       <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
@@ -7650,7 +7491,7 @@
       </c>
       <c r="AC3" s="38"/>
     </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:29">
       <c r="B4" s="79" t="s">
         <v>107</v>
       </c>
@@ -7658,10 +7499,10 @@
         <v>104</v>
       </c>
       <c r="D4" s="79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E4" s="79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F4" s="79" t="s">
         <v>94</v>
@@ -7690,18 +7531,18 @@
         <v>104</v>
       </c>
       <c r="R4" s="77" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S4" s="77" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T4" s="83"/>
       <c r="U4" s="83"/>
       <c r="V4" s="79" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W4" s="79" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="X4" s="72" t="s">
         <v>115</v>
@@ -7716,7 +7557,7 @@
       <c r="AB4" s="80"/>
       <c r="AC4" s="80"/>
     </row>
-    <row r="5" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:29">
       <c r="B5" s="79" t="s">
         <v>107</v>
       </c>
@@ -7724,63 +7565,63 @@
         <v>104</v>
       </c>
       <c r="D5" s="79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E5" s="79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F5" s="79" t="s">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="G5" s="79" t="s">
-        <v>142</v>
-      </c>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
+        <v>90</v>
+      </c>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
       <c r="J5" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="K5" s="74">
+      <c r="K5" s="108">
+        <v>100</v>
+      </c>
+      <c r="L5" s="108"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="192" t="s">
+        <v>164</v>
+      </c>
+      <c r="O5" s="202"/>
+      <c r="P5" s="202"/>
+      <c r="Q5" s="189" t="s">
+        <v>104</v>
+      </c>
+      <c r="R5" s="189" t="s">
+        <v>161</v>
+      </c>
+      <c r="S5" s="189" t="s">
+        <v>161</v>
+      </c>
+      <c r="T5" s="202"/>
+      <c r="U5" s="197" t="s">
+        <v>137</v>
+      </c>
+      <c r="V5" s="194" t="s">
+        <v>141</v>
+      </c>
+      <c r="W5" s="194" t="s">
+        <v>141</v>
+      </c>
+      <c r="X5" s="194" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y5" s="181">
         <v>2</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="192" t="s">
-        <v>147</v>
-      </c>
-      <c r="O5" s="201"/>
-      <c r="P5" s="201"/>
-      <c r="Q5" s="194" t="s">
-        <v>104</v>
-      </c>
-      <c r="R5" s="194" t="s">
-        <v>164</v>
-      </c>
-      <c r="S5" s="194" t="s">
-        <v>164</v>
-      </c>
-      <c r="T5" s="192"/>
-      <c r="U5" s="192" t="s">
-        <v>138</v>
-      </c>
-      <c r="V5" s="192" t="s">
-        <v>142</v>
-      </c>
-      <c r="W5" s="192" t="s">
-        <v>142</v>
-      </c>
-      <c r="X5" s="192" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y5" s="198">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="192"/>
-      <c r="AA5" s="201"/>
-      <c r="AB5" s="201"/>
-      <c r="AC5" s="201"/>
-    </row>
-    <row r="6" spans="2:29" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="Z5" s="201"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+    </row>
+    <row r="6" spans="2:29" s="3" customFormat="1" ht="12.75" customHeight="1">
       <c r="B6" s="79" t="s">
         <v>107</v>
       </c>
@@ -7788,59 +7629,45 @@
         <v>104</v>
       </c>
       <c r="D6" s="79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E6" s="79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F6" s="79" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="G6" s="79" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="96"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="K6" s="78">
+        <v>141</v>
+      </c>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="74">
         <v>2</v>
       </c>
       <c r="L6" s="80"/>
-      <c r="M6" s="96"/>
+      <c r="M6" s="97"/>
       <c r="N6" s="193"/>
-      <c r="O6" s="202"/>
-      <c r="P6" s="202"/>
-      <c r="Q6" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R6" s="195" t="s">
-        <v>120</v>
-      </c>
-      <c r="S6" s="195"/>
-      <c r="T6" s="193"/>
-      <c r="U6" s="193" t="s">
-        <v>119</v>
-      </c>
-      <c r="V6" s="193" t="s">
-        <v>131</v>
-      </c>
-      <c r="W6" s="193" t="s">
-        <v>131</v>
-      </c>
-      <c r="X6" s="193" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y6" s="199">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="193"/>
-      <c r="AA6" s="202"/>
-      <c r="AB6" s="202"/>
-      <c r="AC6" s="202"/>
-    </row>
-    <row r="7" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="203"/>
+      <c r="P6" s="203"/>
+      <c r="Q6" s="190"/>
+      <c r="R6" s="190"/>
+      <c r="S6" s="190"/>
+      <c r="T6" s="203"/>
+      <c r="U6" s="198"/>
+      <c r="V6" s="195"/>
+      <c r="W6" s="195"/>
+      <c r="X6" s="195"/>
+      <c r="Y6" s="182"/>
+      <c r="Z6" s="192"/>
+      <c r="AA6" s="197"/>
+      <c r="AB6" s="197"/>
+      <c r="AC6" s="197"/>
+    </row>
+    <row r="7" spans="2:29" s="3" customFormat="1" ht="24">
       <c r="B7" s="79" t="s">
         <v>107</v>
       </c>
@@ -7848,10 +7675,10 @@
         <v>104</v>
       </c>
       <c r="D7" s="79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E7" s="79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F7" s="79" t="s">
         <v>130</v>
@@ -7859,44 +7686,34 @@
       <c r="G7" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="H7" s="97"/>
+      <c r="H7" s="96"/>
       <c r="I7" s="78"/>
-      <c r="J7" s="59" t="s">
-        <v>117</v>
-      </c>
-      <c r="K7" s="59"/>
+      <c r="J7" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="78">
+        <v>2</v>
+      </c>
       <c r="L7" s="80"/>
-      <c r="M7" s="97"/>
+      <c r="M7" s="96"/>
       <c r="N7" s="193"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R7" s="195" t="s">
-        <v>120</v>
-      </c>
-      <c r="S7" s="195"/>
-      <c r="T7" s="193"/>
-      <c r="U7" s="193" t="s">
-        <v>119</v>
-      </c>
-      <c r="V7" s="193" t="s">
-        <v>130</v>
-      </c>
-      <c r="W7" s="193" t="s">
-        <v>130</v>
-      </c>
-      <c r="X7" s="193" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y7" s="199"/>
+      <c r="O7" s="203"/>
+      <c r="P7" s="203"/>
+      <c r="Q7" s="190"/>
+      <c r="R7" s="190"/>
+      <c r="S7" s="190"/>
+      <c r="T7" s="203"/>
+      <c r="U7" s="198"/>
+      <c r="V7" s="195"/>
+      <c r="W7" s="195"/>
+      <c r="X7" s="195"/>
+      <c r="Y7" s="182"/>
       <c r="Z7" s="193"/>
-      <c r="AA7" s="202"/>
-      <c r="AB7" s="202"/>
-      <c r="AC7" s="202"/>
-    </row>
-    <row r="8" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA7" s="198"/>
+      <c r="AB7" s="198"/>
+      <c r="AC7" s="198"/>
+    </row>
+    <row r="8" spans="2:29" s="3" customFormat="1">
       <c r="B8" s="79" t="s">
         <v>107</v>
       </c>
@@ -7904,16 +7721,16 @@
         <v>104</v>
       </c>
       <c r="D8" s="79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E8" s="79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F8" s="79" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G8" s="79" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H8" s="97"/>
       <c r="I8" s="78"/>
@@ -7924,35 +7741,23 @@
       <c r="L8" s="80"/>
       <c r="M8" s="97"/>
       <c r="N8" s="193"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R8" s="195" t="s">
-        <v>120</v>
-      </c>
-      <c r="S8" s="195"/>
-      <c r="T8" s="193"/>
-      <c r="U8" s="193" t="s">
-        <v>119</v>
-      </c>
-      <c r="V8" s="193" t="s">
-        <v>125</v>
-      </c>
-      <c r="W8" s="193" t="s">
-        <v>125</v>
-      </c>
-      <c r="X8" s="193" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y8" s="199"/>
+      <c r="O8" s="203"/>
+      <c r="P8" s="203"/>
+      <c r="Q8" s="190"/>
+      <c r="R8" s="190"/>
+      <c r="S8" s="190"/>
+      <c r="T8" s="203"/>
+      <c r="U8" s="198"/>
+      <c r="V8" s="195"/>
+      <c r="W8" s="195"/>
+      <c r="X8" s="195"/>
+      <c r="Y8" s="182"/>
       <c r="Z8" s="193"/>
-      <c r="AA8" s="202"/>
-      <c r="AB8" s="202"/>
-      <c r="AC8" s="202"/>
-    </row>
-    <row r="9" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA8" s="198"/>
+      <c r="AB8" s="198"/>
+      <c r="AC8" s="198"/>
+    </row>
+    <row r="9" spans="2:29" s="3" customFormat="1">
       <c r="B9" s="79" t="s">
         <v>107</v>
       </c>
@@ -7960,59 +7765,43 @@
         <v>104</v>
       </c>
       <c r="D9" s="79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E9" s="79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F9" s="79" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G9" s="79" t="s">
-        <v>127</v>
-      </c>
-      <c r="H9" s="78"/>
+        <v>124</v>
+      </c>
+      <c r="H9" s="97"/>
       <c r="I9" s="78"/>
-      <c r="J9" s="78" t="s">
-        <v>137</v>
-      </c>
-      <c r="K9" s="78">
-        <v>1</v>
-      </c>
+      <c r="J9" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="59"/>
       <c r="L9" s="80"/>
       <c r="M9" s="97"/>
       <c r="N9" s="193"/>
-      <c r="O9" s="202"/>
-      <c r="P9" s="202"/>
-      <c r="Q9" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R9" s="195" t="s">
-        <v>120</v>
-      </c>
-      <c r="S9" s="195"/>
-      <c r="T9" s="193"/>
-      <c r="U9" s="193" t="s">
-        <v>119</v>
-      </c>
-      <c r="V9" s="193" t="s">
-        <v>127</v>
-      </c>
-      <c r="W9" s="193" t="s">
-        <v>127</v>
-      </c>
-      <c r="X9" s="193" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y9" s="199">
-        <v>1</v>
-      </c>
+      <c r="O9" s="203"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="190"/>
+      <c r="R9" s="190"/>
+      <c r="S9" s="190"/>
+      <c r="T9" s="203"/>
+      <c r="U9" s="198"/>
+      <c r="V9" s="195"/>
+      <c r="W9" s="195"/>
+      <c r="X9" s="195"/>
+      <c r="Y9" s="182"/>
       <c r="Z9" s="193"/>
-      <c r="AA9" s="202"/>
-      <c r="AB9" s="202"/>
-      <c r="AC9" s="202"/>
-    </row>
-    <row r="10" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AA9" s="198"/>
+      <c r="AB9" s="198"/>
+      <c r="AC9" s="198"/>
+    </row>
+    <row r="10" spans="2:29" s="3" customFormat="1">
       <c r="B10" s="79" t="s">
         <v>107</v>
       </c>
@@ -8020,123 +7809,95 @@
         <v>104</v>
       </c>
       <c r="D10" s="79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E10" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="61" t="s">
-        <v>94</v>
+        <v>161</v>
+      </c>
+      <c r="F10" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="79" t="s">
+        <v>126</v>
       </c>
       <c r="H10" s="78"/>
       <c r="I10" s="78"/>
-      <c r="J10" s="72" t="s">
+      <c r="J10" s="78" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="78">
+        <v>1</v>
+      </c>
+      <c r="L10" s="80"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="193"/>
+      <c r="O10" s="203"/>
+      <c r="P10" s="203"/>
+      <c r="Q10" s="190"/>
+      <c r="R10" s="190"/>
+      <c r="S10" s="190"/>
+      <c r="T10" s="203"/>
+      <c r="U10" s="198"/>
+      <c r="V10" s="195"/>
+      <c r="W10" s="195"/>
+      <c r="X10" s="195"/>
+      <c r="Y10" s="182"/>
+      <c r="Z10" s="193"/>
+      <c r="AA10" s="198"/>
+      <c r="AB10" s="198"/>
+      <c r="AC10" s="198"/>
+    </row>
+    <row r="11" spans="2:29" s="3" customFormat="1">
+      <c r="B11" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="K10" s="74">
+      <c r="K11" s="74">
         <v>8</v>
       </c>
-      <c r="L10" s="74">
+      <c r="L11" s="74">
         <v>2</v>
       </c>
-      <c r="M10" s="78"/>
-      <c r="N10" s="193"/>
-      <c r="O10" s="202"/>
-      <c r="P10" s="202"/>
-      <c r="Q10" s="195" t="s">
-        <v>104</v>
-      </c>
-      <c r="R10" s="195" t="s">
-        <v>120</v>
-      </c>
-      <c r="S10" s="195"/>
-      <c r="T10" s="193"/>
-      <c r="U10" s="193" t="s">
-        <v>119</v>
-      </c>
-      <c r="V10" s="193" t="s">
-        <v>94</v>
-      </c>
-      <c r="W10" s="193" t="s">
-        <v>94</v>
-      </c>
-      <c r="X10" s="193" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y10" s="199">
-        <v>8</v>
-      </c>
-      <c r="Z10" s="193">
-        <v>2</v>
-      </c>
-      <c r="AA10" s="202"/>
-      <c r="AB10" s="202"/>
-      <c r="AC10" s="202"/>
-    </row>
-    <row r="11" spans="2:29" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="G11" s="87" t="s">
-        <v>132</v>
-      </c>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" s="98">
-        <v>5</v>
-      </c>
-      <c r="L11" s="82"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="197"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="193"/>
       <c r="O11" s="203"/>
       <c r="P11" s="203"/>
-      <c r="Q11" s="196" t="s">
-        <v>104</v>
-      </c>
-      <c r="R11" s="196" t="s">
-        <v>120</v>
-      </c>
-      <c r="S11" s="196"/>
-      <c r="T11" s="197"/>
-      <c r="U11" s="197" t="s">
-        <v>119</v>
-      </c>
-      <c r="V11" s="197" t="s">
-        <v>132</v>
-      </c>
-      <c r="W11" s="197" t="s">
-        <v>132</v>
-      </c>
-      <c r="X11" s="197" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y11" s="200">
-        <v>5</v>
-      </c>
-      <c r="Z11" s="197"/>
-      <c r="AA11" s="203"/>
-      <c r="AB11" s="203"/>
-      <c r="AC11" s="203"/>
-    </row>
-    <row r="12" spans="2:29" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="Q11" s="190"/>
+      <c r="R11" s="190"/>
+      <c r="S11" s="190"/>
+      <c r="T11" s="203"/>
+      <c r="U11" s="198"/>
+      <c r="V11" s="195"/>
+      <c r="W11" s="195"/>
+      <c r="X11" s="195"/>
+      <c r="Y11" s="182"/>
+      <c r="Z11" s="193">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="198"/>
+      <c r="AB11" s="198"/>
+      <c r="AC11" s="198"/>
+    </row>
+    <row r="12" spans="2:29" s="3" customFormat="1">
       <c r="B12" s="87" t="s">
         <v>107</v>
       </c>
@@ -8144,61 +7905,45 @@
         <v>104</v>
       </c>
       <c r="D12" s="79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E12" s="79" t="s">
-        <v>164</v>
-      </c>
-      <c r="F12" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12" s="78">
-        <v>1</v>
-      </c>
-      <c r="L12" s="81"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="O12" s="83"/>
-      <c r="P12" s="83"/>
-      <c r="Q12" s="107" t="s">
-        <v>104</v>
-      </c>
-      <c r="R12" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="S12" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="T12" s="83"/>
-      <c r="U12" s="83"/>
-      <c r="V12" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="W12" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="X12" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y12" s="79">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="80"/>
-    </row>
-    <row r="13" spans="2:29" s="3" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="F12" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="98">
+        <v>5</v>
+      </c>
+      <c r="L12" s="82"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="200"/>
+      <c r="O12" s="204"/>
+      <c r="P12" s="204"/>
+      <c r="Q12" s="191"/>
+      <c r="R12" s="191"/>
+      <c r="S12" s="191"/>
+      <c r="T12" s="204"/>
+      <c r="U12" s="199"/>
+      <c r="V12" s="196"/>
+      <c r="W12" s="196"/>
+      <c r="X12" s="196"/>
+      <c r="Y12" s="183"/>
+      <c r="Z12" s="200"/>
+      <c r="AA12" s="199"/>
+      <c r="AB12" s="199"/>
+      <c r="AC12" s="199"/>
+    </row>
+    <row r="13" spans="2:29" s="3" customFormat="1" ht="60">
       <c r="B13" s="87" t="s">
         <v>107</v>
       </c>
@@ -8206,20 +7951,20 @@
         <v>104</v>
       </c>
       <c r="D13" s="79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E13" s="79" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F13" s="75" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="G13" s="75" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="H13" s="80"/>
       <c r="I13" s="80"/>
-      <c r="J13" s="109" t="s">
+      <c r="J13" s="78" t="s">
         <v>118</v>
       </c>
       <c r="K13" s="78">
@@ -8228,7 +7973,7 @@
       <c r="L13" s="81"/>
       <c r="M13" s="80"/>
       <c r="N13" s="57" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="O13" s="83"/>
       <c r="P13" s="83"/>
@@ -8236,153 +7981,215 @@
         <v>104</v>
       </c>
       <c r="R13" s="77" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S13" s="77" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="T13" s="83"/>
       <c r="U13" s="83"/>
       <c r="V13" s="75" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="W13" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="X13" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y13" s="75">
-        <v>3</v>
+        <v>153</v>
+      </c>
+      <c r="X13" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y13" s="79">
+        <v>1</v>
       </c>
       <c r="Z13" s="80"/>
       <c r="AA13" s="80"/>
       <c r="AB13" s="80"/>
       <c r="AC13" s="80"/>
     </row>
-    <row r="14" spans="2:29" ht="348" x14ac:dyDescent="0.2">
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="57"/>
-      <c r="P14" s="58"/>
+    <row r="14" spans="2:29" s="3" customFormat="1" ht="96">
+      <c r="B14" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="80"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="109" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" s="78">
+        <v>1</v>
+      </c>
+      <c r="L14" s="81"/>
+      <c r="M14" s="80"/>
+      <c r="N14" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="O14" s="83"/>
+      <c r="P14" s="83"/>
       <c r="Q14" s="107" t="s">
         <v>104</v>
       </c>
       <c r="R14" s="77" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="S14" s="77" t="s">
-        <v>164</v>
-      </c>
-      <c r="T14" s="73"/>
-      <c r="U14" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="T14" s="83"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="W14" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="X14" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y14" s="75">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="80"/>
+      <c r="AC14" s="80"/>
+    </row>
+    <row r="15" spans="2:29" ht="324">
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="70" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="57"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="107" t="s">
+        <v>104</v>
+      </c>
+      <c r="R15" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="S15" s="77" t="s">
+        <v>161</v>
+      </c>
+      <c r="T15" s="73"/>
+      <c r="U15" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="V14" s="95" t="s">
+      <c r="V15" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="W14" s="107" t="s">
+      <c r="W15" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="X14" s="72" t="s">
+      <c r="X15" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="Y14" s="74">
+      <c r="Y15" s="74">
         <v>30</v>
       </c>
-      <c r="Z14" s="74"/>
-      <c r="AA14" s="59"/>
-      <c r="AB14" s="59"/>
-      <c r="AC14" s="59"/>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="F15" s="56"/>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+    </row>
+    <row r="16" spans="2:29">
       <c r="F16" s="56"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="6:6">
       <c r="F17" s="56"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:6">
       <c r="F18" s="56"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:6">
       <c r="F19" s="56"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:6">
       <c r="F20" s="56"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="6:6">
       <c r="F21" s="56"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:6">
       <c r="F22" s="56"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:6">
       <c r="F23" s="56"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:6">
       <c r="F24" s="56"/>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:6">
       <c r="F25" s="56"/>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:6">
       <c r="F26" s="56"/>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:6">
       <c r="F27" s="56"/>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:6">
       <c r="F28" s="56"/>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:6">
       <c r="F29" s="56"/>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:6">
       <c r="F30" s="56"/>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:6">
       <c r="F31" s="56"/>
     </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:6">
       <c r="F32" s="56"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AC5:AC11"/>
+    <mergeCell ref="AA6:AA12"/>
+    <mergeCell ref="AB6:AB12"/>
+    <mergeCell ref="N5:N12"/>
+    <mergeCell ref="O5:O12"/>
+    <mergeCell ref="P5:P12"/>
+    <mergeCell ref="Q5:Q12"/>
+    <mergeCell ref="R5:R12"/>
+    <mergeCell ref="S5:S12"/>
+    <mergeCell ref="T5:T12"/>
+    <mergeCell ref="U5:U12"/>
+    <mergeCell ref="V5:V12"/>
+    <mergeCell ref="W5:W12"/>
+    <mergeCell ref="X5:X12"/>
+    <mergeCell ref="Y5:Y12"/>
+    <mergeCell ref="AC6:AC12"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="Z5:Z11"/>
-    <mergeCell ref="N5:N11"/>
-    <mergeCell ref="O5:O11"/>
-    <mergeCell ref="P5:P11"/>
-    <mergeCell ref="Q5:Q11"/>
-    <mergeCell ref="R5:R11"/>
-    <mergeCell ref="S5:S11"/>
-    <mergeCell ref="T5:T11"/>
-    <mergeCell ref="U5:U11"/>
-    <mergeCell ref="V5:V11"/>
-    <mergeCell ref="X5:X11"/>
-    <mergeCell ref="Y5:Y11"/>
-    <mergeCell ref="W5:W11"/>
-    <mergeCell ref="AA5:AA11"/>
-    <mergeCell ref="AB5:AB11"/>
+    <mergeCell ref="Z6:Z12"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -8392,7 +8199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8400,7 +8207,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="13" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="13" customWidth="1"/>
@@ -8408,7 +8215,7 @@
     <col min="4" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25">
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
       <c r="G1" s="20"/>
@@ -8428,7 +8235,7 @@
       <c r="X1" s="15"/>
       <c r="Y1" s="15"/>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25">
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="19"/>
@@ -8448,7 +8255,7 @@
       <c r="X2" s="15"/>
       <c r="Y2" s="15"/>
     </row>
-    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" ht="18">
       <c r="C3" s="17" t="s">
         <v>50</v>
       </c>
@@ -8473,7 +8280,7 @@
       <c r="X3" s="15"/>
       <c r="Y3" s="15"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25">
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="E4" s="15"/>
@@ -8495,7 +8302,7 @@
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25">
       <c r="B6" s="34" t="s">
         <v>51</v>
       </c>
@@ -8503,7 +8310,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" ht="25.5">
       <c r="B7" s="29" t="s">
         <v>48</v>
       </c>
@@ -8511,7 +8318,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" ht="25.5">
       <c r="B8" s="29" t="s">
         <v>46</v>
       </c>
@@ -8519,7 +8326,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" ht="25.5">
       <c r="B9" s="29" t="s">
         <v>44</v>
       </c>
@@ -8527,7 +8334,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" ht="25.5">
       <c r="B10" s="29" t="s">
         <v>42</v>
       </c>
@@ -8535,7 +8342,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" ht="25.5">
       <c r="B11" s="29" t="s">
         <v>40</v>
       </c>
@@ -8543,7 +8350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" ht="25.5">
       <c r="B12" s="29" t="s">
         <v>38</v>
       </c>
@@ -8551,7 +8358,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" ht="25.5">
       <c r="B13" s="29" t="s">
         <v>36</v>
       </c>
@@ -8559,7 +8366,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" ht="25.5">
       <c r="B14" s="29" t="s">
         <v>34</v>
       </c>
@@ -8567,7 +8374,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" ht="25.5">
       <c r="B15" s="29" t="s">
         <v>32</v>
       </c>
@@ -8575,7 +8382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" ht="25.5">
       <c r="B16" s="29" t="s">
         <v>30</v>
       </c>
@@ -8583,7 +8390,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" ht="25.5">
       <c r="B17" s="29" t="s">
         <v>28</v>
       </c>
@@ -8591,7 +8398,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" ht="25.5">
       <c r="B18" s="29" t="s">
         <v>26</v>
       </c>
@@ -8599,7 +8406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" ht="25.5">
       <c r="B19" s="30" t="s">
         <v>24</v>
       </c>
@@ -8607,7 +8414,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" ht="25.5">
       <c r="B20" s="29" t="s">
         <v>22</v>
       </c>
@@ -8615,7 +8422,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" ht="25.5">
       <c r="B21" s="29" t="s">
         <v>20</v>
       </c>
@@ -8623,7 +8430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" ht="25.5">
       <c r="B22" s="29" t="s">
         <v>18</v>
       </c>
@@ -8631,7 +8438,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" ht="25.5">
       <c r="B23" s="32" t="s">
         <v>16</v>
       </c>
@@ -8656,12 +8463,7 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8714,7 +8516,12 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8733,9 +8540,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8756,9 +8563,9 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>